--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289D97D-E18B-4898-9B6F-5072029BE968}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12338D7-C847-47F9-AA8C-B85E76E18633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2415" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="101">
   <si>
     <t>Integer x1</t>
   </si>
@@ -306,6 +306,24 @@
   </si>
   <si>
     <t>Test test13 test13Test</t>
+  </si>
+  <si>
+    <t>Integer y</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test14(Integer x)</t>
+  </si>
+  <si>
+    <t>Test test14 test14Test</t>
+  </si>
+  <si>
+    <t>(x1 + y) * 2 == p1</t>
   </si>
 </sst>
 </file>
@@ -530,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -606,111 +624,151 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,40 +783,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1126,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
-  <dimension ref="C3:P181"/>
+  <dimension ref="C3:P205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1147,28 +1171,28 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="41" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="8"/>
@@ -1194,13 +1218,13 @@
       <c r="M5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="39" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1208,34 +1232,34 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="43" t="s">
+      <c r="O6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="71" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1243,59 +1267,59 @@
       <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="51" t="s">
+      <c r="D7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="71"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="42" t="s">
+      <c r="M8" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43" t="s">
+      <c r="O8" s="53"/>
+      <c r="P8" s="71" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1303,1582 +1327,1780 @@
       <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="51" t="s">
+      <c r="D9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="71"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="71"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51" t="s">
+      <c r="E11" s="48"/>
+      <c r="F11" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="74" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="I11" s="71"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="71"/>
+    </row>
+    <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="46"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="71"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="62"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="42" t="s">
+      <c r="E13" s="48"/>
+      <c r="F13" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="48"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="66"/>
+        <v>97</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="66"/>
+        <v>96</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="66"/>
+        <v>97</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="66"/>
+        <v>82</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="66"/>
-    </row>
-    <row r="19" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="54"/>
+      <c r="F18" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="66"/>
+      <c r="D19" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="66"/>
-      <c r="M20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="12"/>
+      <c r="D20" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="66"/>
-      <c r="M21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="D21" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="66"/>
-      <c r="M22" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E22" s="55"/>
+      <c r="F22" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="66"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43"/>
+      <c r="D23" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="66"/>
-      <c r="M24" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="55"/>
+      <c r="F24" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="51"/>
+      <c r="M24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="66"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="11" t="s">
+      <c r="D25" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="51"/>
+      <c r="M25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="55"/>
+      <c r="H26" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="M26" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="51"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="51"/>
+      <c r="M28" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="51"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+    </row>
+    <row r="30" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="55" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="73"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="72"/>
-      <c r="M26" s="44" t="s">
+      <c r="G30" s="63"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
+      <c r="M30" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42" t="s">
+      <c r="N30" s="49"/>
+      <c r="O30" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="P26" s="43"/>
-    </row>
-    <row r="27" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M27" s="49"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
-    </row>
-    <row r="30" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="P30" s="50"/>
+    </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="39" t="s">
+      <c r="M31" s="78"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="79"/>
+    </row>
+    <row r="34" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="52" t="s">
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="1" t="s">
+      <c r="D36" s="46"/>
+      <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M36" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C33" s="50">
-        <v>1</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" s="57" t="s">
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="47">
+        <v>1</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="57"/>
-      <c r="P33" s="27" t="s">
+      <c r="O37" s="72"/>
+      <c r="P37" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="50">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C38" s="47">
         <v>2</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34">
+      <c r="D38" s="48"/>
+      <c r="E38">
         <v>5</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="M34" s="41" t="s">
+      <c r="M38" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="N34" s="57" t="s">
+      <c r="N38" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="O34" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="P34" s="58" t="s">
+      <c r="O38" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C35" s="50">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C39" s="47">
         <v>3</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="D39" s="48"/>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="M35" s="41"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="58"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="50">
-        <v>4</v>
-      </c>
-      <c r="D36" s="51"/>
-      <c r="E36">
+      <c r="M39" s="67"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="66"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C40" s="47">
+        <v>4</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F36" s="3">
-        <v>4</v>
-      </c>
-      <c r="M36" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="N36" s="57" t="s">
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
+      <c r="M40" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="O36" s="57" t="s">
+      <c r="O40" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="P36" s="58" t="s">
+      <c r="P40" s="66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="50">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C41" s="47">
         <v>5</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37">
+      <c r="D41" s="48"/>
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F41" s="3">
         <v>5</v>
       </c>
-      <c r="M37" s="41"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="58"/>
-    </row>
-    <row r="38" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="54">
-        <v>6</v>
-      </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>6</v>
-      </c>
-      <c r="M38" s="41" t="s">
+      <c r="M41" s="67"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="66"/>
+    </row>
+    <row r="42" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="56">
+        <v>6</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>6</v>
+      </c>
+      <c r="M42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="57" t="s">
+      <c r="N42" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="O38" s="57"/>
-      <c r="P38" s="58"/>
-    </row>
-    <row r="39" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M39" s="45"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="60"/>
-    </row>
-    <row r="40" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="39" t="s">
+      <c r="O42" s="72"/>
+      <c r="P42" s="66"/>
+    </row>
+    <row r="43" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="73"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="75"/>
+    </row>
+    <row r="44" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C45" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C42" s="52" t="s">
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C46" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D46" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C43" s="50">
-        <v>1</v>
-      </c>
-      <c r="D43" s="51">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C44" s="50">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C47" s="47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="48">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C48" s="47">
         <v>2</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D48" s="48">
         <v>2</v>
       </c>
-      <c r="E44">
+      <c r="E48">
         <v>5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F48" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="50">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="47">
         <v>3</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D49" s="48">
         <v>3</v>
       </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="50">
-        <v>4</v>
-      </c>
-      <c r="D46" s="51">
-        <v>4</v>
-      </c>
-      <c r="E46">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="47">
+        <v>4</v>
+      </c>
+      <c r="D50" s="48">
+        <v>4</v>
+      </c>
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="F46" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="50">
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="47">
         <v>5</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47">
+      <c r="D51" s="48"/>
+      <c r="E51">
         <v>2</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F51" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="54">
-        <v>6</v>
-      </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="39" t="s">
+    <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="56">
+        <v>6</v>
+      </c>
+      <c r="D52" s="57"/>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="40"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="10" t="s">
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C53" s="10" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D57" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="11">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4">
-        <v>6</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C57" s="39" t="s">
+    <row r="58" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="40"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C58" s="10" t="s">
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D62" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="10" t="s">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D63" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="11">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4">
-        <v>6</v>
-      </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C64" s="39" t="s">
+    <row r="64" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="11">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>6</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-    </row>
-    <row r="65" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="52" t="s">
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+    </row>
+    <row r="69" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="2" t="s">
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C66" s="50">
-        <v>1</v>
-      </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C67" s="50">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="47">
+        <v>1</v>
+      </c>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="47">
         <v>2</v>
       </c>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="3">
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="50">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="47">
         <v>3</v>
       </c>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="3">
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="54">
-        <v>4</v>
-      </c>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C73" s="39" t="s">
+    <row r="73" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="56">
+        <v>4</v>
+      </c>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C77" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="40"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C74" s="10" t="s">
+      <c r="D77" s="65"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C75" s="10" t="s">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="11">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C82" s="39" t="s">
+    <row r="80" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="11">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C86" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="40"/>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C83" s="52" t="s">
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="65"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C87" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="53"/>
-      <c r="E83" s="1" t="s">
+      <c r="D87" s="46"/>
+      <c r="E87" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H87" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C84" s="50">
-        <v>1</v>
-      </c>
-      <c r="D84" s="51"/>
-      <c r="E84">
-        <v>6</v>
-      </c>
-      <c r="F84">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C88" s="47">
+        <v>1</v>
+      </c>
+      <c r="D88" s="48"/>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88">
         <v>7</v>
       </c>
-      <c r="G84">
+      <c r="G88">
         <v>13</v>
       </c>
-      <c r="H84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C85" s="50">
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C89" s="47">
         <v>2</v>
       </c>
-      <c r="D85" s="51"/>
-      <c r="E85">
+      <c r="D89" s="48"/>
+      <c r="E89">
         <v>5</v>
       </c>
-      <c r="F85">
+      <c r="F89">
         <v>8</v>
       </c>
-      <c r="G85">
+      <c r="G89">
         <v>14</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H89" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="50">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C90" s="47">
         <v>3</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86">
-        <v>4</v>
-      </c>
-      <c r="F86">
+      <c r="D90" s="48"/>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
         <v>9</v>
       </c>
-      <c r="G86">
+      <c r="G90">
         <v>15</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H90" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="50">
-        <v>4</v>
-      </c>
-      <c r="D87" s="51"/>
-      <c r="E87">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C91" s="47">
+        <v>4</v>
+      </c>
+      <c r="D91" s="48"/>
+      <c r="E91">
         <v>3</v>
       </c>
-      <c r="F87">
+      <c r="F91">
         <v>10</v>
       </c>
-      <c r="G87">
+      <c r="G91">
         <v>16</v>
       </c>
-      <c r="H87" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C88" s="50">
+      <c r="H91" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" s="47">
         <v>5</v>
       </c>
-      <c r="D88" s="51"/>
-      <c r="E88">
+      <c r="D92" s="48"/>
+      <c r="E92">
         <v>2</v>
       </c>
-      <c r="F88">
+      <c r="F92">
         <v>11</v>
       </c>
-      <c r="G88">
+      <c r="G92">
         <v>17</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H92" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="54">
-        <v>6</v>
-      </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="4">
-        <v>6</v>
-      </c>
-      <c r="G89" s="4">
-        <v>1</v>
-      </c>
-      <c r="H89" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C94" s="39" t="s">
+    <row r="93" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="56">
+        <v>6</v>
+      </c>
+      <c r="D93" s="57"/>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C98" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D94" s="40"/>
-    </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C95" s="10" t="s">
+      <c r="D98" s="65"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C99" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C96" s="10" t="s">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C100" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="11">
+    <row r="101" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="11">
         <v>14</v>
       </c>
-      <c r="D97" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C102" s="39" t="s">
+      <c r="D101" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C106" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="40"/>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C103" s="52" t="s">
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="65"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C107" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="53"/>
-      <c r="E103" s="1" t="s">
+      <c r="D107" s="46"/>
+      <c r="E107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H107" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C104" s="50">
-        <v>1</v>
-      </c>
-      <c r="D104" s="51"/>
-      <c r="E104">
-        <v>6</v>
-      </c>
-      <c r="F104">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C108" s="47">
+        <v>1</v>
+      </c>
+      <c r="D108" s="48"/>
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108">
         <v>7</v>
       </c>
-      <c r="G104">
+      <c r="G108">
         <v>13</v>
       </c>
-      <c r="H104" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C105" s="50">
+      <c r="H108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C109" s="47">
         <v>2</v>
       </c>
-      <c r="D105" s="51"/>
-      <c r="E105">
+      <c r="D109" s="48"/>
+      <c r="E109">
         <v>5</v>
       </c>
-      <c r="F105">
+      <c r="F109">
         <v>8</v>
       </c>
-      <c r="G105">
+      <c r="G109">
         <v>14</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H109" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="50">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C110" s="47">
         <v>3</v>
       </c>
-      <c r="D106" s="51"/>
-      <c r="E106">
-        <v>4</v>
-      </c>
-      <c r="F106">
+      <c r="D110" s="48"/>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
         <v>9</v>
       </c>
-      <c r="G106">
+      <c r="G110">
         <v>15</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H110" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="50">
-        <v>4</v>
-      </c>
-      <c r="D107" s="51"/>
-      <c r="E107">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C111" s="47">
+        <v>4</v>
+      </c>
+      <c r="D111" s="48"/>
+      <c r="E111">
         <v>3</v>
       </c>
-      <c r="F107">
+      <c r="F111">
         <v>10</v>
       </c>
-      <c r="G107">
+      <c r="G111">
         <v>16</v>
       </c>
-      <c r="H107" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="50">
+      <c r="H111" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C112" s="47">
         <v>5</v>
       </c>
-      <c r="D108" s="51"/>
-      <c r="E108">
+      <c r="D112" s="48"/>
+      <c r="E112">
         <v>2</v>
       </c>
-      <c r="F108">
+      <c r="F112">
         <v>11</v>
       </c>
-      <c r="G108">
+      <c r="G112">
         <v>17</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H112" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="54">
-        <v>6</v>
-      </c>
-      <c r="D109" s="55"/>
-      <c r="E109" s="4">
-        <v>1</v>
-      </c>
-      <c r="F109" s="4">
-        <v>6</v>
-      </c>
-      <c r="G109" s="4">
-        <v>1</v>
-      </c>
-      <c r="H109" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C114" s="39" t="s">
+    <row r="113" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="56">
+        <v>6</v>
+      </c>
+      <c r="D113" s="57"/>
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4">
+        <v>6</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C118" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D114" s="40"/>
-    </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C115" s="10" t="s">
+      <c r="D118" s="65"/>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C119" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C116" s="10" t="s">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C120" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="11">
+    <row r="121" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="11">
         <v>14</v>
       </c>
-      <c r="D117" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C123" s="39" t="s">
+      <c r="D121" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D123" s="56"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="40"/>
-    </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C124" s="52" t="s">
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="64"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="65"/>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C128" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D124" s="53"/>
-      <c r="E124" s="1" t="s">
+      <c r="D128" s="46"/>
+      <c r="E128" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H124" s="14" t="s">
+      <c r="H128" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C125" s="50">
-        <v>1</v>
-      </c>
-      <c r="D125" s="51"/>
-      <c r="E125">
-        <v>6</v>
-      </c>
-      <c r="F125">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C129" s="47">
+        <v>1</v>
+      </c>
+      <c r="D129" s="48"/>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129">
         <v>7</v>
       </c>
-      <c r="G125">
+      <c r="G129">
         <v>13</v>
       </c>
-      <c r="H125" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C126" s="50">
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C130" s="47">
         <v>2</v>
       </c>
-      <c r="D126" s="51"/>
-      <c r="E126">
+      <c r="D130" s="48"/>
+      <c r="E130">
         <v>5</v>
       </c>
-      <c r="F126">
+      <c r="F130">
         <v>8</v>
       </c>
-      <c r="G126">
+      <c r="G130">
         <v>14</v>
       </c>
-      <c r="H126" s="3">
+      <c r="H130" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="50">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C131" s="47">
         <v>3</v>
       </c>
-      <c r="D127" s="51"/>
-      <c r="E127">
-        <v>4</v>
-      </c>
-      <c r="F127">
+      <c r="D131" s="48"/>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
         <v>9</v>
       </c>
-      <c r="G127">
+      <c r="G131">
         <v>15</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H131" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C128" s="50">
-        <v>4</v>
-      </c>
-      <c r="D128" s="51"/>
-      <c r="E128">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C132" s="47">
+        <v>4</v>
+      </c>
+      <c r="D132" s="48"/>
+      <c r="E132">
         <v>3</v>
       </c>
-      <c r="F128">
+      <c r="F132">
         <v>10</v>
       </c>
-      <c r="G128">
+      <c r="G132">
         <v>16</v>
       </c>
-      <c r="H128" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C129" s="50">
+      <c r="H132" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C133" s="47">
         <v>5</v>
       </c>
-      <c r="D129" s="51"/>
-      <c r="E129">
+      <c r="D133" s="48"/>
+      <c r="E133">
         <v>2</v>
       </c>
-      <c r="F129">
+      <c r="F133">
         <v>11</v>
       </c>
-      <c r="G129">
+      <c r="G133">
         <v>17</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H133" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="54">
-        <v>6</v>
-      </c>
-      <c r="D130" s="55"/>
-      <c r="E130" s="4">
-        <v>1</v>
-      </c>
-      <c r="F130" s="4">
-        <v>6</v>
-      </c>
-      <c r="G130" s="4">
-        <v>1</v>
-      </c>
-      <c r="H130" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C135" s="39" t="s">
+    <row r="134" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="56">
+        <v>6</v>
+      </c>
+      <c r="D134" s="57"/>
+      <c r="E134" s="4">
+        <v>1</v>
+      </c>
+      <c r="F134" s="4">
+        <v>6</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1</v>
+      </c>
+      <c r="H134" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C139" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D135" s="40"/>
-    </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C136" s="10" t="s">
+      <c r="D139" s="65"/>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C140" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C137" s="10" t="s">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C141" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="11">
+    <row r="142" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="11">
         <v>14</v>
       </c>
-      <c r="D138" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C143" s="39" t="s">
+      <c r="D142" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C147" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D143" s="39"/>
-      <c r="E143" s="64"/>
-    </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C144" s="52" t="s">
+      <c r="D147" s="43"/>
+      <c r="E147" s="44"/>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C148" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D144" s="53" t="s">
+      <c r="D148" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C145" s="50">
-        <v>1</v>
-      </c>
-      <c r="D145" s="51">
-        <v>1</v>
-      </c>
-      <c r="E145" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C146" s="50">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C149" s="47">
+        <v>1</v>
+      </c>
+      <c r="D149" s="48">
+        <v>1</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C150" s="47">
         <v>2</v>
       </c>
-      <c r="D146" s="51">
+      <c r="D150" s="48">
         <v>2</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E150" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C147" s="50">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C151" s="47">
         <v>3</v>
       </c>
-      <c r="D147" s="51">
+      <c r="D151" s="48">
         <v>3</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E151" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="50">
-        <v>4</v>
-      </c>
-      <c r="D148" s="51">
-        <v>4</v>
-      </c>
-      <c r="E148" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="50">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C152" s="47">
+        <v>4</v>
+      </c>
+      <c r="D152" s="48">
+        <v>4</v>
+      </c>
+      <c r="E152" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C153" s="47">
         <v>5</v>
       </c>
-      <c r="D149" s="51">
+      <c r="D153" s="48">
         <v>5</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E153" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="54">
-        <v>6</v>
-      </c>
-      <c r="D150" s="55">
-        <v>6</v>
-      </c>
-      <c r="E150" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C158" s="64" t="s">
+    <row r="154" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="56">
+        <v>6</v>
+      </c>
+      <c r="D154" s="57">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C162" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D158" s="64"/>
-      <c r="E158" s="65"/>
-    </row>
-    <row r="159" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C159" s="13" t="s">
+      <c r="D162" s="44"/>
+      <c r="E162" s="58"/>
+    </row>
+    <row r="163" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D159" s="36" t="s">
+      <c r="D163" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E159" s="37" t="s">
+      <c r="E163" s="37" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C160" s="10">
-        <v>1</v>
-      </c>
-      <c r="D160" s="33">
-        <v>1</v>
-      </c>
-      <c r="E160" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C161" s="10">
-        <v>2</v>
-      </c>
-      <c r="D161" s="33">
-        <v>2</v>
-      </c>
-      <c r="E161" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" s="10">
-        <v>3</v>
-      </c>
-      <c r="D162" s="33">
-        <v>3</v>
-      </c>
-      <c r="E162" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C163" s="10">
-        <v>4</v>
-      </c>
-      <c r="D163" s="33">
-        <v>4</v>
-      </c>
-      <c r="E163" s="38">
-        <v>4</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C164" s="10">
+        <v>1</v>
+      </c>
+      <c r="D164" s="33">
+        <v>1</v>
+      </c>
+      <c r="E164" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C165" s="10">
+        <v>2</v>
+      </c>
+      <c r="D165" s="33">
+        <v>2</v>
+      </c>
+      <c r="E165" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C166" s="10">
+        <v>3</v>
+      </c>
+      <c r="D166" s="33">
+        <v>3</v>
+      </c>
+      <c r="E166" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C167" s="10">
+        <v>4</v>
+      </c>
+      <c r="D167" s="33">
+        <v>4</v>
+      </c>
+      <c r="E167" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C168" s="10">
         <v>5</v>
       </c>
-      <c r="D164" s="33">
+      <c r="D168" s="33">
         <v>5</v>
       </c>
-      <c r="E164" s="38">
+      <c r="E168" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="11">
-        <v>6</v>
-      </c>
-      <c r="D165" s="35">
-        <v>6</v>
-      </c>
-      <c r="E165" s="34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C170" s="39" t="s">
+    <row r="169" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="11">
+        <v>6</v>
+      </c>
+      <c r="D169" s="35">
+        <v>6</v>
+      </c>
+      <c r="E169" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C174" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D170" s="40"/>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C171" s="10" t="s">
+      <c r="D174" s="65"/>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C175" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C172" s="10" t="s">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C176" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="11">
+    <row r="177" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="11">
         <v>3</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D177" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C178" s="39" t="s">
+    <row r="181" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C182" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D178" s="40"/>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C179" s="10" t="s">
+      <c r="D182" s="65"/>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C183" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C180" s="10" t="s">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C184" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="11">
+    <row r="185" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="11">
         <v>8</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D185" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C190" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D190" s="44"/>
+      <c r="E190" s="58"/>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C191" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D191" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E191" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C192" s="10">
+        <v>1</v>
+      </c>
+      <c r="D192" s="33">
+        <v>1</v>
+      </c>
+      <c r="E192" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C193" s="10">
+        <v>2</v>
+      </c>
+      <c r="D193" s="33">
+        <v>2</v>
+      </c>
+      <c r="E193" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C194" s="10">
+        <v>3</v>
+      </c>
+      <c r="D194" s="33">
+        <v>3</v>
+      </c>
+      <c r="E194" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C195" s="10">
+        <v>4</v>
+      </c>
+      <c r="D195" s="33">
+        <v>4</v>
+      </c>
+      <c r="E195" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C196" s="10">
+        <v>5</v>
+      </c>
+      <c r="D196" s="33">
+        <v>5</v>
+      </c>
+      <c r="E196" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C197" s="11">
+        <v>6</v>
+      </c>
+      <c r="D197" s="35">
+        <v>6</v>
+      </c>
+      <c r="E197" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C202" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D202" s="65"/>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C203" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C204" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C205" s="11">
+        <v>16</v>
+      </c>
+      <c r="D205" s="5">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
+  <mergeCells count="143">
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I21"/>
-    <mergeCell ref="F14:G17"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="H22:I25"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:D128"/>
     <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C45:F45"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="P40:P41"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -2890,80 +3112,64 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H6:I9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
     <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="H26:I29"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="N10:P13"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2974,7 +3180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
@@ -2991,7 +3197,7 @@
   <sheetData>
     <row r="3" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
@@ -3011,25 +3217,25 @@
       <c r="R4" s="21"/>
     </row>
     <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="L5" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="81"/>
+      <c r="H5" s="86"/>
+      <c r="L5" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="88"/>
       <c r="N5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3043,193 +3249,193 @@
       <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="82"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="87" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="L6" s="44" t="s">
+      <c r="H6" s="86"/>
+      <c r="L6" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="42"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42" t="s">
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="43"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="L7" s="44" t="s">
+      <c r="H7" s="86"/>
+      <c r="L7" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="42"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="87" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="L8" s="44" t="s">
+      <c r="H8" s="86"/>
+      <c r="L8" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="42"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="69" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="69"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="L9" s="44" t="s">
+      <c r="H9" s="80"/>
+      <c r="L9" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="69" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="69"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="L10" s="49" t="s">
+      <c r="H10" s="80"/>
+      <c r="L10" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="47"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47" t="s">
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="48"/>
+      <c r="R10" s="79"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="44"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="91"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="83" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="40"/>
-      <c r="L16" s="77" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="L16" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
     </row>
     <row r="17" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -3239,10 +3445,10 @@
       <c r="L17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="51"/>
+      <c r="N17" s="48"/>
       <c r="O17" t="s">
         <v>75</v>
       </c>
@@ -3251,10 +3457,10 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="48"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -3264,23 +3470,23 @@
       <c r="L18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="75" t="s">
+      <c r="N18" s="48"/>
+      <c r="O18" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="89" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="48"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -3288,17 +3494,17 @@
         <v>2</v>
       </c>
       <c r="L19" s="31"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="75"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="48"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -3308,21 +3514,21 @@
       <c r="L20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="75" t="s">
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="89" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="48"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -3330,17 +3536,17 @@
         <v>4</v>
       </c>
       <c r="L21" s="31"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="75"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="48"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -3350,21 +3556,21 @@
       <c r="L22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="75" t="s">
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -3372,27 +3578,27 @@
         <v>6</v>
       </c>
       <c r="L23" s="31"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="75"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="89"/>
     </row>
     <row r="24" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="32"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="76"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="90"/>
     </row>
     <row r="27" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="40"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
@@ -3430,18 +3636,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="40"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3450,10 +3656,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="48"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -3462,10 +3668,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="48"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -3474,10 +3680,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="48"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -3486,10 +3692,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="48"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -3498,10 +3704,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="48"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -3510,10 +3716,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="55"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -3523,11 +3729,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="40"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
@@ -3564,10 +3770,10 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="40"/>
+      <c r="C54" s="65"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
@@ -3627,10 +3833,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="40"/>
+      <c r="C65" s="65"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
@@ -3658,10 +3864,10 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="40"/>
+      <c r="C72" s="65"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
@@ -3721,10 +3927,10 @@
     </row>
     <row r="82" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="40"/>
+      <c r="C83" s="65"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
@@ -3752,18 +3958,18 @@
     </row>
     <row r="91" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="40"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="65"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="53"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3772,10 +3978,10 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="51"/>
+      <c r="C94" s="48"/>
       <c r="D94">
         <v>6</v>
       </c>
@@ -3784,10 +3990,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="51"/>
+      <c r="C95" s="48"/>
       <c r="D95">
         <v>5</v>
       </c>
@@ -3796,10 +4002,10 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="51"/>
+      <c r="C96" s="48"/>
       <c r="D96">
         <v>4</v>
       </c>
@@ -3808,10 +4014,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="51"/>
+      <c r="C97" s="48"/>
       <c r="D97">
         <v>3</v>
       </c>
@@ -3820,10 +4026,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="51"/>
+      <c r="C98" s="48"/>
       <c r="D98">
         <v>2</v>
       </c>
@@ -3832,10 +4038,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="55"/>
+      <c r="C99" s="57"/>
       <c r="D99" s="4">
         <v>1</v>
       </c>
@@ -3845,10 +4051,10 @@
     </row>
     <row r="105" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="40"/>
+      <c r="C106" s="65"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
@@ -3876,23 +4082,42 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="M22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B5:C8"/>
@@ -3906,42 +4131,23 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="Q6:R9"/>
-    <mergeCell ref="M22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\EPBDS-8247_Conditions_Return_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12338D7-C847-47F9-AA8C-B85E76E18633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21070303-B944-4CEE-8CCF-BDA21D6C0502}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2415" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="3300" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
-    <sheet name="Returns" sheetId="5" r:id="rId2"/>
+    <sheet name="Actions" sheetId="7" r:id="rId2"/>
+    <sheet name="Returns" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="115">
   <si>
     <t>Integer x1</t>
   </si>
@@ -324,6 +325,48 @@
   </si>
   <si>
     <t>(x1 + y) * 2 == p1</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Actions trasponsedActions</t>
+  </si>
+  <si>
+    <t>Actions trasponsedActionsDefaultStructure</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>p.a = x</t>
+  </si>
+  <si>
+    <t>MyType p</t>
+  </si>
+  <si>
+    <t>Datatype MyType</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test15(Double p1, Integer p2, MyType x)</t>
+  </si>
+  <si>
+    <t>=x.a</t>
+  </si>
+  <si>
+    <t>Test test15 test15Test</t>
   </si>
 </sst>
 </file>
@@ -373,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -544,11 +587,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -634,10 +697,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,11 +738,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,131 +759,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1152,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1171,25 +1254,25 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="74" t="s">
         <v>72</v>
       </c>
       <c r="M4" s="41" t="s">
@@ -1232,34 +1315,34 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="71" t="s">
+      <c r="O6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="51" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1267,59 +1350,59 @@
       <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="48" t="s">
+      <c r="D7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="71"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="71" t="s">
+      <c r="O8" s="50"/>
+      <c r="P8" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1327,273 +1410,273 @@
       <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="48" t="s">
+      <c r="D9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="71"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="71"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="53" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="71"/>
+      <c r="I11" s="51"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="71"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="62"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="53" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="71"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="53" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="71"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="50"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="48" t="s">
+      <c r="E18" s="79"/>
+      <c r="F18" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="49" t="s">
+      <c r="G18" s="79"/>
+      <c r="H18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="51"/>
+      <c r="D19" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="51"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="51"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="48" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="51"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="51"/>
+      <c r="D23" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="48" t="s">
+      <c r="E24" s="78"/>
+      <c r="F24" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="51"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="75"/>
       <c r="M24" s="7" t="s">
         <v>71</v>
       </c>
@@ -1605,14 +1688,14 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="51"/>
+      <c r="D25" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="75"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -1630,28 +1713,28 @@
       <c r="C26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="48" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="49" t="s">
+      <c r="G26" s="78"/>
+      <c r="H26" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="M26" s="77" t="s">
+      <c r="I26" s="75"/>
+      <c r="M26" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="49" t="s">
+      <c r="N26" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="O26" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="50" t="s">
+      <c r="P26" s="64" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1659,43 +1742,43 @@
       <c r="C27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="51"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
+      <c r="D27" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="75"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="48" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="51"/>
-      <c r="M28" s="77" t="s">
+      <c r="G28" s="78"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="75"/>
+      <c r="M28" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="49" t="s">
+      <c r="N28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="49" t="s">
+      <c r="O28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="50" t="s">
+      <c r="P28" s="64" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1703,60 +1786,60 @@
       <c r="C29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="51"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="50"/>
+      <c r="D29" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="75"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="30" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="57" t="s">
+      <c r="D30" s="54"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-      <c r="M30" s="77" t="s">
+      <c r="G30" s="81"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="59"/>
+      <c r="M30" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49" t="s">
+      <c r="N30" s="63"/>
+      <c r="O30" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="50"/>
+      <c r="P30" s="64"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="78"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="79"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
     </row>
     <row r="34" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="46"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1771,10 +1854,10 @@
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="47">
-        <v>1</v>
-      </c>
-      <c r="D37" s="48"/>
+      <c r="C37" s="52">
+        <v>1</v>
+      </c>
+      <c r="D37" s="49"/>
       <c r="E37">
         <v>6</v>
       </c>
@@ -1784,134 +1867,134 @@
       <c r="M37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="72" t="s">
+      <c r="N37" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="O37" s="72"/>
+      <c r="O37" s="68"/>
       <c r="P37" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="47">
+      <c r="C38" s="52">
         <v>2</v>
       </c>
-      <c r="D38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="M38" s="67" t="s">
+      <c r="M38" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="P38" s="66" t="s">
+      <c r="O38" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="69" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="47">
+      <c r="C39" s="52">
         <v>3</v>
       </c>
-      <c r="D39" s="48"/>
+      <c r="D39" s="49"/>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="M39" s="67"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="66"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="69"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C40" s="47">
+      <c r="C40" s="52">
         <v>4</v>
       </c>
-      <c r="D40" s="48"/>
+      <c r="D40" s="49"/>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="M40" s="67" t="s">
+      <c r="M40" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="N40" s="72" t="s">
+      <c r="N40" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="O40" s="72" t="s">
+      <c r="O40" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="P40" s="66" t="s">
+      <c r="P40" s="69" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="47">
+      <c r="C41" s="52">
         <v>5</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
       </c>
-      <c r="M41" s="67"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="66"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="69"/>
     </row>
     <row r="42" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="56">
+      <c r="C42" s="53">
         <v>6</v>
       </c>
-      <c r="D42" s="57"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>6</v>
       </c>
-      <c r="M42" s="67" t="s">
+      <c r="M42" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="72" t="s">
+      <c r="N42" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="O42" s="72"/>
-      <c r="P42" s="66"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="69"/>
     </row>
     <row r="43" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M43" s="73"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="75"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="71"/>
     </row>
     <row r="44" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -1922,10 +2005,10 @@
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="48">
+      <c r="C47" s="52">
+        <v>1</v>
+      </c>
+      <c r="D47" s="49">
         <v>1</v>
       </c>
       <c r="E47">
@@ -1936,10 +2019,10 @@
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="47">
+      <c r="C48" s="52">
         <v>2</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="49">
         <v>2</v>
       </c>
       <c r="E48">
@@ -1950,10 +2033,10 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="47">
+      <c r="C49" s="52">
         <v>3</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="49">
         <v>3</v>
       </c>
       <c r="E49">
@@ -1964,10 +2047,10 @@
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="47">
+      <c r="C50" s="52">
         <v>4</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="49">
         <v>4</v>
       </c>
       <c r="E50">
@@ -1978,10 +2061,10 @@
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="47">
+      <c r="C51" s="52">
         <v>5</v>
       </c>
-      <c r="D51" s="48"/>
+      <c r="D51" s="49"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -1990,10 +2073,10 @@
       </c>
     </row>
     <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="56">
+      <c r="C52" s="53">
         <v>6</v>
       </c>
-      <c r="D52" s="57"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -2003,11 +2086,11 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -2044,11 +2127,11 @@
     </row>
     <row r="60" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="48"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="10" t="s">
@@ -2085,69 +2168,69 @@
     </row>
     <row r="67" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
     </row>
     <row r="69" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="47">
-        <v>1</v>
-      </c>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
+      <c r="C70" s="52">
+        <v>1</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="47">
+      <c r="C71" s="52">
         <v>2</v>
       </c>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="47">
+      <c r="C72" s="52">
         <v>3</v>
       </c>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
       <c r="F72" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="56">
+      <c r="C73" s="53">
         <v>4</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
       <c r="F73" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="65"/>
+      <c r="D77" s="48"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="10" t="s">
@@ -2175,20 +2258,20 @@
     </row>
     <row r="85" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="65"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="48"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="45" t="s">
+      <c r="C87" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="46"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="1" t="s">
         <v>53</v>
       </c>
@@ -2203,10 +2286,10 @@
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C88" s="47">
-        <v>1</v>
-      </c>
-      <c r="D88" s="48"/>
+      <c r="C88" s="52">
+        <v>1</v>
+      </c>
+      <c r="D88" s="49"/>
       <c r="E88">
         <v>6</v>
       </c>
@@ -2221,10 +2304,10 @@
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C89" s="47">
+      <c r="C89" s="52">
         <v>2</v>
       </c>
-      <c r="D89" s="48"/>
+      <c r="D89" s="49"/>
       <c r="E89">
         <v>5</v>
       </c>
@@ -2239,10 +2322,10 @@
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C90" s="47">
+      <c r="C90" s="52">
         <v>3</v>
       </c>
-      <c r="D90" s="48"/>
+      <c r="D90" s="49"/>
       <c r="E90">
         <v>4</v>
       </c>
@@ -2257,10 +2340,10 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C91" s="47">
+      <c r="C91" s="52">
         <v>4</v>
       </c>
-      <c r="D91" s="48"/>
+      <c r="D91" s="49"/>
       <c r="E91">
         <v>3</v>
       </c>
@@ -2275,10 +2358,10 @@
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="47">
+      <c r="C92" s="52">
         <v>5</v>
       </c>
-      <c r="D92" s="48"/>
+      <c r="D92" s="49"/>
       <c r="E92">
         <v>2</v>
       </c>
@@ -2293,10 +2376,10 @@
       </c>
     </row>
     <row r="93" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="56">
+      <c r="C93" s="53">
         <v>6</v>
       </c>
-      <c r="D93" s="57"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="4">
         <v>1</v>
       </c>
@@ -2312,10 +2395,10 @@
     </row>
     <row r="97" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="43" t="s">
+      <c r="C98" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="65"/>
+      <c r="D98" s="48"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
@@ -2343,20 +2426,20 @@
     </row>
     <row r="105" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="65"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="48"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="45" t="s">
+      <c r="C107" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="46"/>
+      <c r="D107" s="57"/>
       <c r="E107" s="1" t="s">
         <v>53</v>
       </c>
@@ -2371,10 +2454,10 @@
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="47">
-        <v>1</v>
-      </c>
-      <c r="D108" s="48"/>
+      <c r="C108" s="52">
+        <v>1</v>
+      </c>
+      <c r="D108" s="49"/>
       <c r="E108">
         <v>6</v>
       </c>
@@ -2389,10 +2472,10 @@
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C109" s="47">
+      <c r="C109" s="52">
         <v>2</v>
       </c>
-      <c r="D109" s="48"/>
+      <c r="D109" s="49"/>
       <c r="E109">
         <v>5</v>
       </c>
@@ -2407,10 +2490,10 @@
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C110" s="47">
+      <c r="C110" s="52">
         <v>3</v>
       </c>
-      <c r="D110" s="48"/>
+      <c r="D110" s="49"/>
       <c r="E110">
         <v>4</v>
       </c>
@@ -2425,10 +2508,10 @@
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C111" s="47">
+      <c r="C111" s="52">
         <v>4</v>
       </c>
-      <c r="D111" s="48"/>
+      <c r="D111" s="49"/>
       <c r="E111">
         <v>3</v>
       </c>
@@ -2443,10 +2526,10 @@
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="47">
+      <c r="C112" s="52">
         <v>5</v>
       </c>
-      <c r="D112" s="48"/>
+      <c r="D112" s="49"/>
       <c r="E112">
         <v>2</v>
       </c>
@@ -2461,10 +2544,10 @@
       </c>
     </row>
     <row r="113" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="56">
+      <c r="C113" s="53">
         <v>6</v>
       </c>
-      <c r="D113" s="57"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="4">
         <v>1</v>
       </c>
@@ -2480,10 +2563,10 @@
     </row>
     <row r="117" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C118" s="43" t="s">
+      <c r="C118" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D118" s="65"/>
+      <c r="D118" s="48"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
@@ -2511,20 +2594,20 @@
     </row>
     <row r="126" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="43" t="s">
+      <c r="C127" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
-      <c r="H127" s="65"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="48"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C128" s="45" t="s">
+      <c r="C128" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D128" s="46"/>
+      <c r="D128" s="57"/>
       <c r="E128" s="1" t="s">
         <v>53</v>
       </c>
@@ -2539,10 +2622,10 @@
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C129" s="47">
-        <v>1</v>
-      </c>
-      <c r="D129" s="48"/>
+      <c r="C129" s="52">
+        <v>1</v>
+      </c>
+      <c r="D129" s="49"/>
       <c r="E129">
         <v>6</v>
       </c>
@@ -2557,10 +2640,10 @@
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C130" s="47">
+      <c r="C130" s="52">
         <v>2</v>
       </c>
-      <c r="D130" s="48"/>
+      <c r="D130" s="49"/>
       <c r="E130">
         <v>5</v>
       </c>
@@ -2575,10 +2658,10 @@
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C131" s="47">
+      <c r="C131" s="52">
         <v>3</v>
       </c>
-      <c r="D131" s="48"/>
+      <c r="D131" s="49"/>
       <c r="E131">
         <v>4</v>
       </c>
@@ -2593,10 +2676,10 @@
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C132" s="47">
+      <c r="C132" s="52">
         <v>4</v>
       </c>
-      <c r="D132" s="48"/>
+      <c r="D132" s="49"/>
       <c r="E132">
         <v>3</v>
       </c>
@@ -2611,10 +2694,10 @@
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C133" s="47">
+      <c r="C133" s="52">
         <v>5</v>
       </c>
-      <c r="D133" s="48"/>
+      <c r="D133" s="49"/>
       <c r="E133">
         <v>2</v>
       </c>
@@ -2629,10 +2712,10 @@
       </c>
     </row>
     <row r="134" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="56">
+      <c r="C134" s="53">
         <v>6</v>
       </c>
-      <c r="D134" s="57"/>
+      <c r="D134" s="54"/>
       <c r="E134" s="4">
         <v>1</v>
       </c>
@@ -2648,10 +2731,10 @@
     </row>
     <row r="138" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C139" s="43" t="s">
+      <c r="C139" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D139" s="65"/>
+      <c r="D139" s="48"/>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C140" s="10" t="s">
@@ -2679,17 +2762,17 @@
     </row>
     <row r="146" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C147" s="43" t="s">
+      <c r="C147" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D147" s="43"/>
-      <c r="E147" s="44"/>
+      <c r="D147" s="47"/>
+      <c r="E147" s="45"/>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="45" t="s">
+      <c r="C148" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D148" s="46" t="s">
+      <c r="D148" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -2697,10 +2780,10 @@
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="47">
-        <v>1</v>
-      </c>
-      <c r="D149" s="48">
+      <c r="C149" s="52">
+        <v>1</v>
+      </c>
+      <c r="D149" s="49">
         <v>1</v>
       </c>
       <c r="E149" s="3">
@@ -2708,10 +2791,10 @@
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="47">
+      <c r="C150" s="52">
         <v>2</v>
       </c>
-      <c r="D150" s="48">
+      <c r="D150" s="49">
         <v>2</v>
       </c>
       <c r="E150" s="3">
@@ -2719,10 +2802,10 @@
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="47">
+      <c r="C151" s="52">
         <v>3</v>
       </c>
-      <c r="D151" s="48">
+      <c r="D151" s="49">
         <v>3</v>
       </c>
       <c r="E151" s="3">
@@ -2730,10 +2813,10 @@
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="47">
+      <c r="C152" s="52">
         <v>4</v>
       </c>
-      <c r="D152" s="48">
+      <c r="D152" s="49">
         <v>4</v>
       </c>
       <c r="E152" s="3">
@@ -2741,10 +2824,10 @@
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="47">
+      <c r="C153" s="52">
         <v>5</v>
       </c>
-      <c r="D153" s="48">
+      <c r="D153" s="49">
         <v>5</v>
       </c>
       <c r="E153" s="3">
@@ -2752,10 +2835,10 @@
       </c>
     </row>
     <row r="154" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="56">
+      <c r="C154" s="53">
         <v>6</v>
       </c>
-      <c r="D154" s="57">
+      <c r="D154" s="54">
         <v>6</v>
       </c>
       <c r="E154" s="5">
@@ -2764,11 +2847,11 @@
     </row>
     <row r="161" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" s="44" t="s">
+      <c r="C162" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D162" s="44"/>
-      <c r="E162" s="58"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="46"/>
     </row>
     <row r="163" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="13" t="s">
@@ -2849,10 +2932,10 @@
     </row>
     <row r="173" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C174" s="43" t="s">
+      <c r="C174" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="65"/>
+      <c r="D174" s="48"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="10" t="s">
@@ -2880,10 +2963,10 @@
     </row>
     <row r="181" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C182" s="43" t="s">
+      <c r="C182" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D182" s="65"/>
+      <c r="D182" s="48"/>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="10" t="s">
@@ -2911,11 +2994,11 @@
     </row>
     <row r="189" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C190" s="44" t="s">
+      <c r="C190" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D190" s="44"/>
-      <c r="E190" s="58"/>
+      <c r="D190" s="45"/>
+      <c r="E190" s="46"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="13" t="s">
@@ -2996,10 +3079,10 @@
     </row>
     <row r="201" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C202" s="43" t="s">
+      <c r="C202" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D202" s="65"/>
+      <c r="D202" s="48"/>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="10" t="s">
@@ -3027,6 +3110,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="H26:I29"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C190:E190"/>
     <mergeCell ref="C202:D202"/>
     <mergeCell ref="D15:E15"/>
@@ -3051,125 +3253,6 @@
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="H26:I29"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I25"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C89:D89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3177,17 +3260,888 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B66093-639E-4223-85DB-41B30E656EFC}">
+  <dimension ref="C3:P57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C4" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="M5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="60"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="60"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
+    </row>
+    <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="75"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="75"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="75"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="75"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="75"/>
+    </row>
+    <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="75"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="78"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="75"/>
+      <c r="M24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="75"/>
+      <c r="M25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="75"/>
+      <c r="M26" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="75"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="75"/>
+      <c r="M28" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="75"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="51"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="51"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="51"/>
+    </row>
+    <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="81"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="59"/>
+      <c r="M31" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="64"/>
+    </row>
+    <row r="32" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="65"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
+    </row>
+    <row r="38" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M39" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" s="84"/>
+    </row>
+    <row r="40" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N40" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="M41" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C42" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="83"/>
+      <c r="E42" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C43" s="52">
+        <v>1</v>
+      </c>
+      <c r="D43" s="78"/>
+      <c r="E43" s="33">
+        <v>6</v>
+      </c>
+      <c r="F43" s="33">
+        <v>777</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C44" s="52">
+        <v>2</v>
+      </c>
+      <c r="D44" s="78"/>
+      <c r="E44" s="33">
+        <v>5</v>
+      </c>
+      <c r="F44" s="33">
+        <v>2</v>
+      </c>
+      <c r="G44" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="52">
+        <v>3</v>
+      </c>
+      <c r="D45" s="78"/>
+      <c r="E45" s="33">
+        <v>4</v>
+      </c>
+      <c r="F45" s="33">
+        <v>3</v>
+      </c>
+      <c r="G45" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C46" s="52">
+        <v>4</v>
+      </c>
+      <c r="D46" s="78"/>
+      <c r="E46" s="33">
+        <v>3</v>
+      </c>
+      <c r="F46" s="33">
+        <v>4</v>
+      </c>
+      <c r="G46" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C47" s="52">
+        <v>5</v>
+      </c>
+      <c r="D47" s="78"/>
+      <c r="E47" s="33">
+        <v>2</v>
+      </c>
+      <c r="F47" s="33">
+        <v>5</v>
+      </c>
+      <c r="G47" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="53">
+        <v>6</v>
+      </c>
+      <c r="D48" s="86"/>
+      <c r="E48" s="35">
+        <v>1</v>
+      </c>
+      <c r="F48" s="35">
+        <v>6</v>
+      </c>
+      <c r="G48" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="101"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="O31:P32"/>
+    <mergeCell ref="H26:I29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="N28:N30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:R109"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="50" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="31" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
@@ -3217,25 +4171,25 @@
       <c r="R4" s="21"/>
     </row>
     <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="L5" s="87" t="s">
+      <c r="H5" s="94"/>
+      <c r="L5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="88"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3249,193 +4203,193 @@
       <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="L6" s="77" t="s">
+      <c r="H6" s="94"/>
+      <c r="L6" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="49"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49" t="s">
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="50"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="85"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="L7" s="77" t="s">
+      <c r="H7" s="94"/>
+      <c r="L7" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="49"/>
+      <c r="M7" s="63"/>
       <c r="N7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="50"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="64"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="L8" s="77" t="s">
+      <c r="H8" s="94"/>
+      <c r="L8" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="49"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="L9" s="77" t="s">
+      <c r="H9" s="97"/>
+      <c r="L9" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="49"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="L10" s="78" t="s">
+      <c r="H10" s="97"/>
+      <c r="L10" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="61"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="61" t="s">
+      <c r="O10" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61" t="s">
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="79"/>
+      <c r="R10" s="67"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="77"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="80"/>
+      <c r="H11" s="97"/>
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="78"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="81" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="L16" s="91" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="48"/>
+      <c r="L16" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
     </row>
     <row r="17" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -3445,10 +4399,10 @@
       <c r="L17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="48"/>
+      <c r="N17" s="49"/>
       <c r="O17" t="s">
         <v>75</v>
       </c>
@@ -3457,10 +4411,10 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -3470,23 +4424,23 @@
       <c r="L18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="89" t="s">
+      <c r="N18" s="49"/>
+      <c r="O18" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="87" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -3494,17 +4448,17 @@
         <v>2</v>
       </c>
       <c r="L19" s="31"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="89"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="87"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -3514,21 +4468,21 @@
       <c r="L20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="89" t="s">
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="87" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="49"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -3536,17 +4490,17 @@
         <v>4</v>
       </c>
       <c r="L21" s="31"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="89"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="87"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="49"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -3556,21 +4510,21 @@
       <c r="L22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="89" t="s">
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -3578,27 +4532,27 @@
         <v>6</v>
       </c>
       <c r="L23" s="31"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="89"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="87"/>
     </row>
     <row r="24" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="32"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="90"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="88"/>
     </row>
     <row r="27" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
@@ -3636,18 +4590,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="46"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3656,10 +4610,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -3668,10 +4622,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -3680,10 +4634,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="49"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -3692,10 +4646,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="48"/>
+      <c r="C41" s="49"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -3704,10 +4658,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="49"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -3716,10 +4670,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -3729,11 +4683,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
@@ -3770,10 +4724,10 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="48"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
@@ -3833,10 +4787,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="65"/>
+      <c r="C65" s="48"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
@@ -3864,10 +4818,10 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="65"/>
+      <c r="C72" s="48"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
@@ -3927,10 +4881,10 @@
     </row>
     <row r="82" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="65"/>
+      <c r="C83" s="48"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
@@ -3958,18 +4912,18 @@
     </row>
     <row r="91" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="65"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="48"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="46"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3978,10 +4932,10 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="47" t="s">
+      <c r="B94" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="48"/>
+      <c r="C94" s="49"/>
       <c r="D94">
         <v>6</v>
       </c>
@@ -3990,10 +4944,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="47" t="s">
+      <c r="B95" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="48"/>
+      <c r="C95" s="49"/>
       <c r="D95">
         <v>5</v>
       </c>
@@ -4002,10 +4956,10 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="48"/>
+      <c r="C96" s="49"/>
       <c r="D96">
         <v>4</v>
       </c>
@@ -4014,10 +4968,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="47" t="s">
+      <c r="B97" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="48"/>
+      <c r="C97" s="49"/>
       <c r="D97">
         <v>3</v>
       </c>
@@ -4026,10 +4980,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="48"/>
+      <c r="C98" s="49"/>
       <c r="D98">
         <v>2</v>
       </c>
@@ -4038,10 +4992,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="57"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="4">
         <v>1</v>
       </c>
@@ -4051,10 +5005,10 @@
     </row>
     <row r="105" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="65"/>
+      <c r="C106" s="48"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
@@ -4082,56 +5036,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="M22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="Q6:R9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B9:C12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
@@ -4148,6 +5052,56 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="M22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\EPBDS-8247_Conditions_Return_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21070303-B944-4CEE-8CCF-BDA21D6C0502}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F1840-11B0-46C8-A320-F04922E20924}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3300" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="2235" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="136">
   <si>
     <t>Integer x1</t>
   </si>
@@ -367,6 +367,69 @@
   </si>
   <si>
     <t>Test test15 test15Test</t>
+  </si>
+  <si>
+    <t>T 1</t>
+  </si>
+  <si>
+    <t>W 1</t>
+  </si>
+  <si>
+    <t>Strict Match1</t>
+  </si>
+  <si>
+    <t>StrictMatch 2</t>
+  </si>
+  <si>
+    <t>Tstrict Match1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TStrictMatch2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TStrictMatch1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Title 2</t>
+  </si>
+  <si>
+    <t>StrictMatch 1</t>
+  </si>
+  <si>
+    <t>Strict Match 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return 1 </t>
+  </si>
+  <si>
+    <t>V 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V1</t>
+  </si>
+  <si>
+    <t>H Strict Match 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Title 1</t>
+  </si>
+  <si>
+    <t>H Return 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrictMatch2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strict Match1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Title2</t>
+  </si>
+  <si>
+    <t>V 2</t>
   </si>
 </sst>
 </file>
@@ -699,115 +762,127 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -820,7 +895,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -836,36 +929,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1235,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:P205"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1254,25 +1317,25 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="72" t="s">
         <v>72</v>
       </c>
       <c r="M4" s="41" t="s">
@@ -1313,370 +1376,370 @@
     </row>
     <row r="6" spans="3:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="51" t="s">
+      <c r="O6" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="73" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51" t="s">
+      <c r="O8" s="55"/>
+      <c r="P8" s="73" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="73"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="73"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50" t="s">
+      <c r="G11" s="50"/>
+      <c r="H11" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
+      <c r="I11" s="73"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="73"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="73"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="64"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50" t="s">
+      <c r="G13" s="50"/>
+      <c r="H13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50" t="s">
+      <c r="G15" s="50"/>
+      <c r="H15" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="50"/>
+      <c r="H17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="64"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="49" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="63" t="s">
+      <c r="G18" s="56"/>
+      <c r="H18" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
+      <c r="D19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="75"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="75"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="75"/>
+      <c r="D23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="49" t="s">
+      <c r="E24" s="57"/>
+      <c r="F24" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="75"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="53"/>
       <c r="M24" s="7" t="s">
         <v>71</v>
       </c>
@@ -1688,14 +1751,14 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="75"/>
+      <c r="D25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="53"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -1713,28 +1776,28 @@
       <c r="C26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="49" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="63" t="s">
+      <c r="G26" s="57"/>
+      <c r="H26" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="75"/>
-      <c r="M26" s="62" t="s">
+      <c r="I26" s="53"/>
+      <c r="M26" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="63" t="s">
+      <c r="N26" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="63" t="s">
+      <c r="O26" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="64" t="s">
+      <c r="P26" s="52" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1742,43 +1805,43 @@
       <c r="C27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="75"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="64"/>
+      <c r="D27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="53"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="49" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
-      <c r="M28" s="62" t="s">
+      <c r="G28" s="57"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="53"/>
+      <c r="M28" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="63" t="s">
+      <c r="O28" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="64" t="s">
+      <c r="P28" s="52" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1786,60 +1849,60 @@
       <c r="C29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="75"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="64"/>
+      <c r="D29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="53"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="54" t="s">
+      <c r="D30" s="59"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="59"/>
-      <c r="M30" s="62" t="s">
+      <c r="G30" s="65"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="M30" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63" t="s">
+      <c r="N30" s="51"/>
+      <c r="O30" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="64"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="81"/>
     </row>
     <row r="34" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="48"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1854,10 +1917,10 @@
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="52">
-        <v>1</v>
-      </c>
-      <c r="D37" s="49"/>
+      <c r="C37" s="49">
+        <v>1</v>
+      </c>
+      <c r="D37" s="50"/>
       <c r="E37">
         <v>6</v>
       </c>
@@ -1867,134 +1930,134 @@
       <c r="M37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="68" t="s">
+      <c r="N37" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="O37" s="68"/>
+      <c r="O37" s="74"/>
       <c r="P37" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="52">
+      <c r="C38" s="49">
         <v>2</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="50"/>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="M38" s="60" t="s">
+      <c r="M38" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="68" t="s">
+      <c r="N38" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="P38" s="69" t="s">
+      <c r="O38" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="68" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="52">
+      <c r="C39" s="49">
         <v>3</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="50"/>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="M39" s="60"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="68"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C40" s="52">
+      <c r="C40" s="49">
         <v>4</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="50"/>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="M40" s="60" t="s">
+      <c r="M40" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="N40" s="68" t="s">
+      <c r="N40" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="O40" s="68" t="s">
+      <c r="O40" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="P40" s="69" t="s">
+      <c r="P40" s="68" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="52">
+      <c r="C41" s="49">
         <v>5</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="50"/>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
       </c>
-      <c r="M41" s="60"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="68"/>
     </row>
     <row r="42" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="53">
+      <c r="C42" s="58">
         <v>6</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>6</v>
       </c>
-      <c r="M42" s="60" t="s">
+      <c r="M42" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="68" t="s">
+      <c r="N42" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="O42" s="68"/>
-      <c r="P42" s="69"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="68"/>
     </row>
     <row r="43" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M43" s="61"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="71"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="77"/>
     </row>
     <row r="44" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2005,10 +2068,10 @@
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="52">
-        <v>1</v>
-      </c>
-      <c r="D47" s="49">
+      <c r="C47" s="49">
+        <v>1</v>
+      </c>
+      <c r="D47" s="50">
         <v>1</v>
       </c>
       <c r="E47">
@@ -2019,10 +2082,10 @@
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="52">
+      <c r="C48" s="49">
         <v>2</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="50">
         <v>2</v>
       </c>
       <c r="E48">
@@ -2033,10 +2096,10 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="52">
+      <c r="C49" s="49">
         <v>3</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="50">
         <v>3</v>
       </c>
       <c r="E49">
@@ -2047,10 +2110,10 @@
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="52">
+      <c r="C50" s="49">
         <v>4</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="50">
         <v>4</v>
       </c>
       <c r="E50">
@@ -2061,10 +2124,10 @@
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="52">
+      <c r="C51" s="49">
         <v>5</v>
       </c>
-      <c r="D51" s="49"/>
+      <c r="D51" s="50"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -2073,10 +2136,10 @@
       </c>
     </row>
     <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="53">
+      <c r="C52" s="58">
         <v>6</v>
       </c>
-      <c r="D52" s="54"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -2086,11 +2149,11 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="48"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -2127,11 +2190,11 @@
     </row>
     <row r="60" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="48"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="67"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="10" t="s">
@@ -2168,69 +2231,69 @@
     </row>
     <row r="67" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
     </row>
     <row r="69" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="52">
-        <v>1</v>
-      </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
+      <c r="C70" s="49">
+        <v>1</v>
+      </c>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="52">
+      <c r="C71" s="49">
         <v>2</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="52">
+      <c r="C72" s="49">
         <v>3</v>
       </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
       <c r="F72" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="53">
+      <c r="C73" s="58">
         <v>4</v>
       </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
       <c r="F73" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="48"/>
+      <c r="D77" s="67"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="10" t="s">
@@ -2258,20 +2321,20 @@
     </row>
     <row r="85" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="48"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="67"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="57"/>
+      <c r="D87" s="48"/>
       <c r="E87" s="1" t="s">
         <v>53</v>
       </c>
@@ -2286,10 +2349,10 @@
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C88" s="52">
-        <v>1</v>
-      </c>
-      <c r="D88" s="49"/>
+      <c r="C88" s="49">
+        <v>1</v>
+      </c>
+      <c r="D88" s="50"/>
       <c r="E88">
         <v>6</v>
       </c>
@@ -2304,10 +2367,10 @@
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C89" s="52">
+      <c r="C89" s="49">
         <v>2</v>
       </c>
-      <c r="D89" s="49"/>
+      <c r="D89" s="50"/>
       <c r="E89">
         <v>5</v>
       </c>
@@ -2322,10 +2385,10 @@
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C90" s="52">
+      <c r="C90" s="49">
         <v>3</v>
       </c>
-      <c r="D90" s="49"/>
+      <c r="D90" s="50"/>
       <c r="E90">
         <v>4</v>
       </c>
@@ -2340,10 +2403,10 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C91" s="52">
+      <c r="C91" s="49">
         <v>4</v>
       </c>
-      <c r="D91" s="49"/>
+      <c r="D91" s="50"/>
       <c r="E91">
         <v>3</v>
       </c>
@@ -2358,10 +2421,10 @@
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="52">
+      <c r="C92" s="49">
         <v>5</v>
       </c>
-      <c r="D92" s="49"/>
+      <c r="D92" s="50"/>
       <c r="E92">
         <v>2</v>
       </c>
@@ -2376,10 +2439,10 @@
       </c>
     </row>
     <row r="93" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="53">
+      <c r="C93" s="58">
         <v>6</v>
       </c>
-      <c r="D93" s="54"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="4">
         <v>1</v>
       </c>
@@ -2395,10 +2458,10 @@
     </row>
     <row r="97" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="47" t="s">
+      <c r="C98" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="48"/>
+      <c r="D98" s="67"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
@@ -2426,20 +2489,20 @@
     </row>
     <row r="105" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="47" t="s">
+      <c r="C106" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="48"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="67"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="57"/>
+      <c r="D107" s="48"/>
       <c r="E107" s="1" t="s">
         <v>53</v>
       </c>
@@ -2454,10 +2517,10 @@
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="52">
-        <v>1</v>
-      </c>
-      <c r="D108" s="49"/>
+      <c r="C108" s="49">
+        <v>1</v>
+      </c>
+      <c r="D108" s="50"/>
       <c r="E108">
         <v>6</v>
       </c>
@@ -2472,10 +2535,10 @@
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C109" s="52">
+      <c r="C109" s="49">
         <v>2</v>
       </c>
-      <c r="D109" s="49"/>
+      <c r="D109" s="50"/>
       <c r="E109">
         <v>5</v>
       </c>
@@ -2490,10 +2553,10 @@
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C110" s="52">
+      <c r="C110" s="49">
         <v>3</v>
       </c>
-      <c r="D110" s="49"/>
+      <c r="D110" s="50"/>
       <c r="E110">
         <v>4</v>
       </c>
@@ -2508,10 +2571,10 @@
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C111" s="52">
+      <c r="C111" s="49">
         <v>4</v>
       </c>
-      <c r="D111" s="49"/>
+      <c r="D111" s="50"/>
       <c r="E111">
         <v>3</v>
       </c>
@@ -2526,10 +2589,10 @@
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="52">
+      <c r="C112" s="49">
         <v>5</v>
       </c>
-      <c r="D112" s="49"/>
+      <c r="D112" s="50"/>
       <c r="E112">
         <v>2</v>
       </c>
@@ -2544,10 +2607,10 @@
       </c>
     </row>
     <row r="113" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="53">
+      <c r="C113" s="58">
         <v>6</v>
       </c>
-      <c r="D113" s="54"/>
+      <c r="D113" s="59"/>
       <c r="E113" s="4">
         <v>1</v>
       </c>
@@ -2563,10 +2626,10 @@
     </row>
     <row r="117" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C118" s="47" t="s">
+      <c r="C118" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D118" s="48"/>
+      <c r="D118" s="67"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
@@ -2594,20 +2657,20 @@
     </row>
     <row r="126" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="47" t="s">
+      <c r="C127" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D127" s="55"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="48"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="67"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="48"/>
       <c r="E128" s="1" t="s">
         <v>53</v>
       </c>
@@ -2622,10 +2685,10 @@
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C129" s="52">
-        <v>1</v>
-      </c>
-      <c r="D129" s="49"/>
+      <c r="C129" s="49">
+        <v>1</v>
+      </c>
+      <c r="D129" s="50"/>
       <c r="E129">
         <v>6</v>
       </c>
@@ -2640,10 +2703,10 @@
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C130" s="52">
+      <c r="C130" s="49">
         <v>2</v>
       </c>
-      <c r="D130" s="49"/>
+      <c r="D130" s="50"/>
       <c r="E130">
         <v>5</v>
       </c>
@@ -2658,10 +2721,10 @@
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C131" s="52">
+      <c r="C131" s="49">
         <v>3</v>
       </c>
-      <c r="D131" s="49"/>
+      <c r="D131" s="50"/>
       <c r="E131">
         <v>4</v>
       </c>
@@ -2676,10 +2739,10 @@
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C132" s="52">
+      <c r="C132" s="49">
         <v>4</v>
       </c>
-      <c r="D132" s="49"/>
+      <c r="D132" s="50"/>
       <c r="E132">
         <v>3</v>
       </c>
@@ -2694,10 +2757,10 @@
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C133" s="52">
+      <c r="C133" s="49">
         <v>5</v>
       </c>
-      <c r="D133" s="49"/>
+      <c r="D133" s="50"/>
       <c r="E133">
         <v>2</v>
       </c>
@@ -2712,10 +2775,10 @@
       </c>
     </row>
     <row r="134" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="53">
+      <c r="C134" s="58">
         <v>6</v>
       </c>
-      <c r="D134" s="54"/>
+      <c r="D134" s="59"/>
       <c r="E134" s="4">
         <v>1</v>
       </c>
@@ -2731,10 +2794,10 @@
     </row>
     <row r="138" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D139" s="48"/>
+      <c r="D139" s="67"/>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C140" s="10" t="s">
@@ -2762,17 +2825,17 @@
     </row>
     <row r="146" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C147" s="47" t="s">
+      <c r="C147" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D147" s="47"/>
-      <c r="E147" s="45"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="46"/>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="56" t="s">
+      <c r="C148" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D148" s="57" t="s">
+      <c r="D148" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -2780,10 +2843,10 @@
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="52">
-        <v>1</v>
-      </c>
-      <c r="D149" s="49">
+      <c r="C149" s="49">
+        <v>1</v>
+      </c>
+      <c r="D149" s="50">
         <v>1</v>
       </c>
       <c r="E149" s="3">
@@ -2791,10 +2854,10 @@
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="52">
+      <c r="C150" s="49">
         <v>2</v>
       </c>
-      <c r="D150" s="49">
+      <c r="D150" s="50">
         <v>2</v>
       </c>
       <c r="E150" s="3">
@@ -2802,10 +2865,10 @@
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="52">
+      <c r="C151" s="49">
         <v>3</v>
       </c>
-      <c r="D151" s="49">
+      <c r="D151" s="50">
         <v>3</v>
       </c>
       <c r="E151" s="3">
@@ -2813,10 +2876,10 @@
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="52">
+      <c r="C152" s="49">
         <v>4</v>
       </c>
-      <c r="D152" s="49">
+      <c r="D152" s="50">
         <v>4</v>
       </c>
       <c r="E152" s="3">
@@ -2824,10 +2887,10 @@
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="52">
+      <c r="C153" s="49">
         <v>5</v>
       </c>
-      <c r="D153" s="49">
+      <c r="D153" s="50">
         <v>5</v>
       </c>
       <c r="E153" s="3">
@@ -2835,10 +2898,10 @@
       </c>
     </row>
     <row r="154" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="53">
+      <c r="C154" s="58">
         <v>6</v>
       </c>
-      <c r="D154" s="54">
+      <c r="D154" s="59">
         <v>6</v>
       </c>
       <c r="E154" s="5">
@@ -2847,11 +2910,11 @@
     </row>
     <row r="161" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" s="45" t="s">
+      <c r="C162" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D162" s="45"/>
-      <c r="E162" s="46"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="60"/>
     </row>
     <row r="163" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="13" t="s">
@@ -2932,10 +2995,10 @@
     </row>
     <row r="173" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C174" s="47" t="s">
+      <c r="C174" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="48"/>
+      <c r="D174" s="67"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="10" t="s">
@@ -2963,10 +3026,10 @@
     </row>
     <row r="181" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C182" s="47" t="s">
+      <c r="C182" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D182" s="48"/>
+      <c r="D182" s="67"/>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="10" t="s">
@@ -2994,11 +3057,11 @@
     </row>
     <row r="189" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C190" s="45" t="s">
+      <c r="C190" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="D190" s="45"/>
-      <c r="E190" s="46"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="60"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="13" t="s">
@@ -3079,10 +3142,10 @@
     </row>
     <row r="201" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C202" s="47" t="s">
+      <c r="C202" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D202" s="48"/>
+      <c r="D202" s="67"/>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="10" t="s">
@@ -3110,6 +3173,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="H26:I29"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C147:E147"/>
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C149:D149"/>
@@ -3134,125 +3316,6 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="H26:I29"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3263,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B66093-639E-4223-85DB-41B30E656EFC}">
   <dimension ref="C3:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3278,25 +3341,25 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="72" t="s">
         <v>72</v>
       </c>
       <c r="M4" s="41" t="s">
@@ -3326,107 +3389,107 @@
         <v>4</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="51" t="s">
+      <c r="O6" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="73" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51" t="s">
+      <c r="O8" s="55"/>
+      <c r="P8" s="73" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3434,273 +3497,273 @@
       <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="49" t="s">
+      <c r="D9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="73"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="73"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50" t="s">
+      <c r="G11" s="50"/>
+      <c r="H11" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
+      <c r="I11" s="73"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="73"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="73"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="64"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50" t="s">
+      <c r="G13" s="50"/>
+      <c r="H13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50" t="s">
+      <c r="G15" s="50"/>
+      <c r="H15" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="50"/>
+      <c r="H17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="64"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="49" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="63" t="s">
+      <c r="G18" s="56"/>
+      <c r="H18" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
+      <c r="D19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="75"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="75"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="75"/>
+      <c r="D23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="49" t="s">
+      <c r="E24" s="57"/>
+      <c r="F24" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="75"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="53"/>
       <c r="M24" s="7" t="s">
         <v>103</v>
       </c>
@@ -3712,14 +3775,14 @@
       <c r="C25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="75"/>
+      <c r="D25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="53"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -3737,28 +3800,28 @@
       <c r="C26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="49" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="63" t="s">
+      <c r="G26" s="57"/>
+      <c r="H26" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="75"/>
-      <c r="M26" s="62" t="s">
+      <c r="I26" s="53"/>
+      <c r="M26" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="63" t="s">
+      <c r="N26" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="63" t="s">
+      <c r="O26" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="64" t="s">
+      <c r="P26" s="52" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3766,43 +3829,43 @@
       <c r="C27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="75"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="64"/>
+      <c r="D27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="53"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="49" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
-      <c r="M28" s="62" t="s">
+      <c r="G28" s="57"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="53"/>
+      <c r="M28" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="63" t="s">
+      <c r="O28" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="73" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3810,73 +3873,73 @@
       <c r="C29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="75"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="51"/>
+      <c r="D29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="53"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="73"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="78" t="s">
+      <c r="E30" s="50"/>
+      <c r="F30" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="50" t="s">
+      <c r="G30" s="57"/>
+      <c r="H30" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="51"/>
+      <c r="I30" s="73"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="73"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="54" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="59"/>
-      <c r="M31" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="P31" s="64"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="M31" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" s="52"/>
     </row>
     <row r="32" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="81"/>
     </row>
     <row r="38" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="N39" s="84"/>
+      <c r="N39" s="88"/>
     </row>
     <row r="40" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M40" s="10" t="s">
@@ -3887,13 +3950,13 @@
       </c>
     </row>
     <row r="41" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
       <c r="M41" s="11" t="s">
         <v>110</v>
       </c>
@@ -3902,10 +3965,10 @@
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="83"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="43" t="s">
         <v>11</v>
       </c>
@@ -3917,10 +3980,10 @@
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="52">
-        <v>1</v>
-      </c>
-      <c r="D43" s="78"/>
+      <c r="C43" s="49">
+        <v>1</v>
+      </c>
+      <c r="D43" s="57"/>
       <c r="E43" s="33">
         <v>6</v>
       </c>
@@ -3932,10 +3995,10 @@
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="52">
+      <c r="C44" s="49">
         <v>2</v>
       </c>
-      <c r="D44" s="78"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="33">
         <v>5</v>
       </c>
@@ -3947,10 +4010,10 @@
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="52">
+      <c r="C45" s="49">
         <v>3</v>
       </c>
-      <c r="D45" s="78"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="33">
         <v>4</v>
       </c>
@@ -3962,10 +4025,10 @@
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="52">
+      <c r="C46" s="49">
         <v>4</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="33">
         <v>3</v>
       </c>
@@ -3977,10 +4040,10 @@
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="52">
+      <c r="C47" s="49">
         <v>5</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="33">
         <v>2</v>
       </c>
@@ -3992,10 +4055,10 @@
       </c>
     </row>
     <row r="48" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="53">
+      <c r="C48" s="58">
         <v>6</v>
       </c>
-      <c r="D48" s="86"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="35">
         <v>1</v>
       </c>
@@ -4008,12 +4071,12 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="99" t="s">
+      <c r="C55" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="101"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="84"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -4045,13 +4108,63 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="O28:O30"/>
     <mergeCell ref="P28:P30"/>
     <mergeCell ref="D29:E29"/>
@@ -4068,63 +4181,13 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="H18:I25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4134,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:R109"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4171,25 +4234,25 @@
       <c r="R4" s="21"/>
     </row>
     <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="93" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="94"/>
-      <c r="L5" s="82" t="s">
+      <c r="G5" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="L5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="92"/>
+      <c r="M5" s="96"/>
       <c r="N5" s="26" t="s">
         <v>5</v>
       </c>
@@ -4203,193 +4266,193 @@
       <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="94"/>
-      <c r="L6" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="63"/>
+      <c r="G6" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="95"/>
+      <c r="L6" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="51"/>
       <c r="N6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63" t="s">
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="64"/>
+      <c r="R6" s="52"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="93" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="93"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="94"/>
-      <c r="L7" s="62" t="s">
+      <c r="G7" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="L7" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="63"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="52"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="94"/>
-      <c r="L8" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="63"/>
+      <c r="G8" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="95"/>
+      <c r="L8" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="51"/>
       <c r="N8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="52"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="97"/>
-      <c r="L9" s="62" t="s">
+      <c r="G9" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="90"/>
+      <c r="L9" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="63"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="52"/>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="78" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="97"/>
-      <c r="L10" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="66"/>
+      <c r="G10" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="90"/>
+      <c r="L10" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="63"/>
       <c r="N10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66" t="s">
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="67"/>
+      <c r="R10" s="81"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="62"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="97"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="86" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="98"/>
+      <c r="G12" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="91"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="48"/>
-      <c r="L16" s="89" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="L16" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="101"/>
     </row>
     <row r="17" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -4399,10 +4462,10 @@
       <c r="L17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="49"/>
+      <c r="N17" s="50"/>
       <c r="O17" t="s">
         <v>75</v>
       </c>
@@ -4411,10 +4474,10 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -4424,23 +4487,23 @@
       <c r="L18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="87" t="s">
+      <c r="N18" s="50"/>
+      <c r="O18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -4448,17 +4511,17 @@
         <v>2</v>
       </c>
       <c r="L19" s="31"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="87"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="97"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -4468,21 +4531,21 @@
       <c r="L20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="87" t="s">
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="97" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -4490,17 +4553,17 @@
         <v>4</v>
       </c>
       <c r="L21" s="31"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="87"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="97"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -4510,21 +4573,21 @@
       <c r="L22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="49" t="s">
+      <c r="M22" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="87" t="s">
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="97" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -4532,27 +4595,27 @@
         <v>6</v>
       </c>
       <c r="L23" s="31"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="87"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="97"/>
     </row>
     <row r="24" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="32"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="88"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="98"/>
     </row>
     <row r="27" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="48"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
@@ -4590,18 +4653,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="48"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
@@ -4610,10 +4673,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="50"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -4622,10 +4685,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="50"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -4634,10 +4697,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="50"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -4646,10 +4709,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="50"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -4658,10 +4721,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="50"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -4670,10 +4733,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="54"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -4683,11 +4746,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="48"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
@@ -4724,10 +4787,10 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="48"/>
+      <c r="C54" s="67"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
@@ -4787,10 +4850,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="48"/>
+      <c r="C65" s="67"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
@@ -4818,10 +4881,10 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="48"/>
+      <c r="C72" s="67"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
@@ -4881,10 +4944,10 @@
     </row>
     <row r="82" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="48"/>
+      <c r="C83" s="67"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
@@ -4912,18 +4975,18 @@
     </row>
     <row r="91" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="48"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="67"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="57"/>
+      <c r="C93" s="48"/>
       <c r="D93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4932,10 +4995,10 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="49"/>
+      <c r="C94" s="50"/>
       <c r="D94">
         <v>6</v>
       </c>
@@ -4944,10 +5007,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="49"/>
+      <c r="C95" s="50"/>
       <c r="D95">
         <v>5</v>
       </c>
@@ -4956,10 +5019,10 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="49"/>
+      <c r="C96" s="50"/>
       <c r="D96">
         <v>4</v>
       </c>
@@ -4968,10 +5031,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="49"/>
+      <c r="C97" s="50"/>
       <c r="D97">
         <v>3</v>
       </c>
@@ -4980,10 +5043,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="49"/>
+      <c r="C98" s="50"/>
       <c r="D98">
         <v>2</v>
       </c>
@@ -4992,10 +5055,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="54"/>
+      <c r="C99" s="59"/>
       <c r="D99" s="4">
         <v>1</v>
       </c>
@@ -5005,10 +5068,10 @@
     </row>
     <row r="105" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="47" t="s">
+      <c r="B106" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="48"/>
+      <c r="C106" s="67"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
@@ -5036,6 +5099,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="M22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B9:C12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
@@ -5052,56 +5165,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="Q6:R9"/>
-    <mergeCell ref="M22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="137">
   <si>
     <t>Integer x1</t>
   </si>
@@ -430,12 +430,16 @@
   </si>
   <si>
     <t>V 2</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test13(Integer x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -462,13 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921" rgb="4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +676,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1304,15 +1308,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3332,11 +3336,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4203,13 +4207,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4347,7 +4351,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="79" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="57" t="s">
@@ -4976,7 +4980,7 @@
     <row r="91" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="45" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C92" s="66"/>
       <c r="D92" s="66"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F1840-11B0-46C8-A320-F04922E20924}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9276965-F9D2-4DD9-AF98-4FB32E7DE455}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2235" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="2235" windowWidth="31875" windowHeight="17670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="136">
   <si>
     <t>Integer x1</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Return1</t>
   </si>
   <si>
-    <t>SmartRules DoubleValue test6(Double param1)</t>
-  </si>
-  <si>
     <t>Test test6 test6Test</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Test test7 test7Test</t>
   </si>
   <si>
-    <t>SmartRules Collect DoubleValue[] test7(Double param1)</t>
-  </si>
-  <si>
     <t>4,4,4,4,4,4</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>Test test12 test12Test</t>
   </si>
   <si>
-    <t>SmartRules DoubleValue test13(Double x)</t>
-  </si>
-  <si>
     <t>x + $x1 + p1</t>
   </si>
   <si>
@@ -433,13 +424,18 @@
   </si>
   <si>
     <t>SmartRules DoubleValue test13(Integer x)</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test6(Integer param1)</t>
+  </si>
+  <si>
+    <t>SmartRules Collect DoubleValue[] test7(Integer param1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -466,13 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921" rgb="4F81BD"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +672,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -766,10 +762,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,11 +801,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,90 +822,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,52 +895,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1302,48 +1298,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>72</v>
+      <c r="C4" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>70</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1369,383 +1365,383 @@
         <v>4</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="3:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="73" t="s">
+      <c r="O6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="51" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="73"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="69" t="s">
+      <c r="M8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="73" t="s">
-        <v>68</v>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="73"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="73"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="55" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="73"/>
+      <c r="I11" s="51"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="73"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="64"/>
+        <v>132</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="55" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="73"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="73"/>
+        <v>94</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="55" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="73"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="73"/>
+        <v>94</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="51" t="s">
+      <c r="E18" s="79"/>
+      <c r="F18" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="53"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="53"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="53"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="53"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="75"/>
       <c r="M24" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -1753,16 +1749,16 @@
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="53"/>
+        <v>53</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="75"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -1778,135 +1774,135 @@
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="53"/>
-      <c r="M26" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="O26" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" s="52" t="s">
-        <v>70</v>
+      <c r="E26" s="78"/>
+      <c r="F26" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="75"/>
+      <c r="M26" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="64" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="53"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+        <v>51</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="75"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="53"/>
-      <c r="M28" s="79" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="75"/>
+      <c r="M28" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="51" t="s">
+      <c r="O28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="52" t="s">
+      <c r="P28" s="64" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="53"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+        <v>53</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="75"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="30" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="59" t="s">
+      <c r="D30" s="54"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="M30" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="P30" s="52"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="59"/>
+      <c r="M30" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="64"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="80"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="81"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
     </row>
     <row r="34" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1914,17 +1910,17 @@
         <v>9</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="49">
-        <v>1</v>
-      </c>
-      <c r="D37" s="50"/>
+      <c r="C37" s="52">
+        <v>1</v>
+      </c>
+      <c r="D37" s="49"/>
       <c r="E37">
         <v>6</v>
       </c>
@@ -1934,134 +1930,134 @@
       <c r="M37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="74" t="s">
+      <c r="N37" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="O37" s="74"/>
+      <c r="O37" s="68"/>
       <c r="P37" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="49">
+      <c r="C38" s="52">
         <v>2</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="49"/>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="M38" s="69" t="s">
+      <c r="M38" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="74" t="s">
+      <c r="N38" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="P38" s="68" t="s">
+      <c r="O38" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="69" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="49">
+      <c r="C39" s="52">
         <v>3</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="49"/>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="M39" s="69"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="68"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="69"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C40" s="49">
+      <c r="C40" s="52">
         <v>4</v>
       </c>
-      <c r="D40" s="50"/>
+      <c r="D40" s="49"/>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="M40" s="69" t="s">
+      <c r="M40" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="N40" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="P40" s="68" t="s">
-        <v>66</v>
+      <c r="N40" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="69" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="49">
+      <c r="C41" s="52">
         <v>5</v>
       </c>
-      <c r="D41" s="50"/>
+      <c r="D41" s="49"/>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
       </c>
-      <c r="M41" s="69"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="68"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="69"/>
     </row>
     <row r="42" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="58">
+      <c r="C42" s="53">
         <v>6</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>6</v>
       </c>
-      <c r="M42" s="69" t="s">
+      <c r="M42" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="74" t="s">
+      <c r="N42" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="O42" s="74"/>
-      <c r="P42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="69"/>
     </row>
     <row r="43" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M43" s="75"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="77"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="71"/>
     </row>
     <row r="44" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2072,10 +2068,10 @@
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="49">
-        <v>1</v>
-      </c>
-      <c r="D47" s="50">
+      <c r="C47" s="52">
+        <v>1</v>
+      </c>
+      <c r="D47" s="49">
         <v>1</v>
       </c>
       <c r="E47">
@@ -2086,10 +2082,10 @@
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="49">
+      <c r="C48" s="52">
         <v>2</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="49">
         <v>2</v>
       </c>
       <c r="E48">
@@ -2100,10 +2096,10 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="49">
+      <c r="C49" s="52">
         <v>3</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="49">
         <v>3</v>
       </c>
       <c r="E49">
@@ -2114,10 +2110,10 @@
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="49">
+      <c r="C50" s="52">
         <v>4</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="49">
         <v>4</v>
       </c>
       <c r="E50">
@@ -2128,10 +2124,10 @@
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="49">
+      <c r="C51" s="52">
         <v>5</v>
       </c>
-      <c r="D51" s="50"/>
+      <c r="D51" s="49"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -2140,10 +2136,10 @@
       </c>
     </row>
     <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="58">
+      <c r="C52" s="53">
         <v>6</v>
       </c>
-      <c r="D52" s="59"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -2153,11 +2149,11 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -2194,11 +2190,11 @@
     </row>
     <row r="60" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="66"/>
-      <c r="E61" s="67"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="48"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="10" t="s">
@@ -2235,69 +2231,69 @@
     </row>
     <row r="67" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
     </row>
     <row r="69" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="47" t="s">
+      <c r="C69" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="49">
-        <v>1</v>
-      </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
+      <c r="C70" s="52">
+        <v>1</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="49">
+      <c r="C71" s="52">
         <v>2</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="49">
+      <c r="C72" s="52">
         <v>3</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
       <c r="F72" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="58">
+      <c r="C73" s="53">
         <v>4</v>
       </c>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
       <c r="F73" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="67"/>
+      <c r="D77" s="48"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="10" t="s">
@@ -2325,38 +2321,38 @@
     </row>
     <row r="85" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="67"/>
+      <c r="C86" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="48"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="57"/>
+      <c r="E87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H87" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C88" s="49">
-        <v>1</v>
-      </c>
-      <c r="D88" s="50"/>
+      <c r="C88" s="52">
+        <v>1</v>
+      </c>
+      <c r="D88" s="49"/>
       <c r="E88">
         <v>6</v>
       </c>
@@ -2371,10 +2367,10 @@
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C89" s="49">
+      <c r="C89" s="52">
         <v>2</v>
       </c>
-      <c r="D89" s="50"/>
+      <c r="D89" s="49"/>
       <c r="E89">
         <v>5</v>
       </c>
@@ -2389,10 +2385,10 @@
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C90" s="49">
+      <c r="C90" s="52">
         <v>3</v>
       </c>
-      <c r="D90" s="50"/>
+      <c r="D90" s="49"/>
       <c r="E90">
         <v>4</v>
       </c>
@@ -2407,10 +2403,10 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C91" s="49">
+      <c r="C91" s="52">
         <v>4</v>
       </c>
-      <c r="D91" s="50"/>
+      <c r="D91" s="49"/>
       <c r="E91">
         <v>3</v>
       </c>
@@ -2425,10 +2421,10 @@
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="49">
+      <c r="C92" s="52">
         <v>5</v>
       </c>
-      <c r="D92" s="50"/>
+      <c r="D92" s="49"/>
       <c r="E92">
         <v>2</v>
       </c>
@@ -2443,10 +2439,10 @@
       </c>
     </row>
     <row r="93" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="58">
+      <c r="C93" s="53">
         <v>6</v>
       </c>
-      <c r="D93" s="59"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="4">
         <v>1</v>
       </c>
@@ -2462,10 +2458,10 @@
     </row>
     <row r="97" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D98" s="67"/>
+      <c r="C98" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="48"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
@@ -2493,38 +2489,38 @@
     </row>
     <row r="105" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="67"/>
+      <c r="C106" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="48"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" s="57"/>
+      <c r="E107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="48"/>
-      <c r="E107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H107" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="49">
-        <v>1</v>
-      </c>
-      <c r="D108" s="50"/>
+      <c r="C108" s="52">
+        <v>1</v>
+      </c>
+      <c r="D108" s="49"/>
       <c r="E108">
         <v>6</v>
       </c>
@@ -2539,10 +2535,10 @@
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C109" s="49">
+      <c r="C109" s="52">
         <v>2</v>
       </c>
-      <c r="D109" s="50"/>
+      <c r="D109" s="49"/>
       <c r="E109">
         <v>5</v>
       </c>
@@ -2557,10 +2553,10 @@
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C110" s="49">
+      <c r="C110" s="52">
         <v>3</v>
       </c>
-      <c r="D110" s="50"/>
+      <c r="D110" s="49"/>
       <c r="E110">
         <v>4</v>
       </c>
@@ -2575,10 +2571,10 @@
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C111" s="49">
+      <c r="C111" s="52">
         <v>4</v>
       </c>
-      <c r="D111" s="50"/>
+      <c r="D111" s="49"/>
       <c r="E111">
         <v>3</v>
       </c>
@@ -2593,10 +2589,10 @@
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="49">
+      <c r="C112" s="52">
         <v>5</v>
       </c>
-      <c r="D112" s="50"/>
+      <c r="D112" s="49"/>
       <c r="E112">
         <v>2</v>
       </c>
@@ -2611,10 +2607,10 @@
       </c>
     </row>
     <row r="113" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="58">
+      <c r="C113" s="53">
         <v>6</v>
       </c>
-      <c r="D113" s="59"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="4">
         <v>1</v>
       </c>
@@ -2630,10 +2626,10 @@
     </row>
     <row r="117" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C118" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D118" s="67"/>
+      <c r="C118" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" s="48"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
@@ -2661,38 +2657,38 @@
     </row>
     <row r="126" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D127" s="66"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="67"/>
+      <c r="C127" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="48"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C128" s="47" t="s">
+      <c r="C128" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="57"/>
+      <c r="E128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D128" s="48"/>
-      <c r="E128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H128" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C129" s="49">
-        <v>1</v>
-      </c>
-      <c r="D129" s="50"/>
+      <c r="C129" s="52">
+        <v>1</v>
+      </c>
+      <c r="D129" s="49"/>
       <c r="E129">
         <v>6</v>
       </c>
@@ -2707,10 +2703,10 @@
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C130" s="49">
+      <c r="C130" s="52">
         <v>2</v>
       </c>
-      <c r="D130" s="50"/>
+      <c r="D130" s="49"/>
       <c r="E130">
         <v>5</v>
       </c>
@@ -2725,10 +2721,10 @@
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C131" s="49">
+      <c r="C131" s="52">
         <v>3</v>
       </c>
-      <c r="D131" s="50"/>
+      <c r="D131" s="49"/>
       <c r="E131">
         <v>4</v>
       </c>
@@ -2743,10 +2739,10 @@
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C132" s="49">
+      <c r="C132" s="52">
         <v>4</v>
       </c>
-      <c r="D132" s="50"/>
+      <c r="D132" s="49"/>
       <c r="E132">
         <v>3</v>
       </c>
@@ -2761,10 +2757,10 @@
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C133" s="49">
+      <c r="C133" s="52">
         <v>5</v>
       </c>
-      <c r="D133" s="50"/>
+      <c r="D133" s="49"/>
       <c r="E133">
         <v>2</v>
       </c>
@@ -2779,10 +2775,10 @@
       </c>
     </row>
     <row r="134" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="58">
+      <c r="C134" s="53">
         <v>6</v>
       </c>
-      <c r="D134" s="59"/>
+      <c r="D134" s="54"/>
       <c r="E134" s="4">
         <v>1</v>
       </c>
@@ -2798,10 +2794,10 @@
     </row>
     <row r="138" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C139" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D139" s="67"/>
+      <c r="C139" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D139" s="48"/>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C140" s="10" t="s">
@@ -2829,17 +2825,17 @@
     </row>
     <row r="146" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C147" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D147" s="45"/>
-      <c r="E147" s="46"/>
+      <c r="C147" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D147" s="47"/>
+      <c r="E147" s="45"/>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D148" s="48" t="s">
+      <c r="C148" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -2847,10 +2843,10 @@
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="49">
-        <v>1</v>
-      </c>
-      <c r="D149" s="50">
+      <c r="C149" s="52">
+        <v>1</v>
+      </c>
+      <c r="D149" s="49">
         <v>1</v>
       </c>
       <c r="E149" s="3">
@@ -2858,10 +2854,10 @@
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="49">
+      <c r="C150" s="52">
         <v>2</v>
       </c>
-      <c r="D150" s="50">
+      <c r="D150" s="49">
         <v>2</v>
       </c>
       <c r="E150" s="3">
@@ -2869,10 +2865,10 @@
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="49">
+      <c r="C151" s="52">
         <v>3</v>
       </c>
-      <c r="D151" s="50">
+      <c r="D151" s="49">
         <v>3</v>
       </c>
       <c r="E151" s="3">
@@ -2880,10 +2876,10 @@
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="49">
+      <c r="C152" s="52">
         <v>4</v>
       </c>
-      <c r="D152" s="50">
+      <c r="D152" s="49">
         <v>4</v>
       </c>
       <c r="E152" s="3">
@@ -2891,10 +2887,10 @@
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="49">
+      <c r="C153" s="52">
         <v>5</v>
       </c>
-      <c r="D153" s="50">
+      <c r="D153" s="49">
         <v>5</v>
       </c>
       <c r="E153" s="3">
@@ -2902,10 +2898,10 @@
       </c>
     </row>
     <row r="154" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="58">
+      <c r="C154" s="53">
         <v>6</v>
       </c>
-      <c r="D154" s="59">
+      <c r="D154" s="54">
         <v>6</v>
       </c>
       <c r="E154" s="5">
@@ -2914,18 +2910,18 @@
     </row>
     <row r="161" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D162" s="46"/>
-      <c r="E162" s="60"/>
+      <c r="C162" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D162" s="45"/>
+      <c r="E162" s="46"/>
     </row>
     <row r="163" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D163" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E163" s="37" t="s">
         <v>9</v>
@@ -2999,14 +2995,14 @@
     </row>
     <row r="173" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C174" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D174" s="67"/>
+      <c r="C174" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D174" s="48"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>18</v>
@@ -3014,7 +3010,7 @@
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C176" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>19</v>
@@ -3030,14 +3026,14 @@
     </row>
     <row r="181" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C182" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D182" s="67"/>
+      <c r="C182" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D182" s="48"/>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>18</v>
@@ -3045,7 +3041,7 @@
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C184" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>19</v>
@@ -3061,18 +3057,18 @@
     </row>
     <row r="189" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C190" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D190" s="46"/>
-      <c r="E190" s="60"/>
+      <c r="C190" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D190" s="45"/>
+      <c r="E190" s="46"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D191" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E191" s="37" t="s">
         <v>9</v>
@@ -3146,14 +3142,14 @@
     </row>
     <row r="201" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C202" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D202" s="67"/>
+      <c r="C202" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D202" s="48"/>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>18</v>
@@ -3161,7 +3157,7 @@
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C204" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>19</v>
@@ -3177,6 +3173,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="H26:I29"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C190:E190"/>
     <mergeCell ref="C202:D202"/>
     <mergeCell ref="D15:E15"/>
@@ -3201,125 +3316,6 @@
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="H26:I29"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I25"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C89:D89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3336,38 +3332,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>72</v>
+      <c r="C4" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>70</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -3393,383 +3389,383 @@
         <v>4</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="73" t="s">
+      <c r="O6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="51" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="73"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="69" t="s">
+      <c r="M8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="73" t="s">
-        <v>68</v>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="73"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="73"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="55" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="73"/>
+      <c r="I11" s="51"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="73"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="64"/>
+        <v>83</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="55" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="73"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="73"/>
+        <v>94</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="55" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="73"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="73"/>
+        <v>94</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="51" t="s">
+      <c r="E18" s="79"/>
+      <c r="F18" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="53"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="53"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="53"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="53"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="75"/>
       <c r="M24" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -3777,16 +3773,16 @@
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="53"/>
+        <v>53</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="75"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -3802,192 +3798,192 @@
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="53"/>
-      <c r="M26" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="O26" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" s="52" t="s">
-        <v>70</v>
+      <c r="E26" s="78"/>
+      <c r="F26" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="75"/>
+      <c r="M26" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="64" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="53"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+        <v>51</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="75"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="53"/>
-      <c r="M28" s="79" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="75"/>
+      <c r="M28" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="51" t="s">
+      <c r="O28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="73" t="s">
+      <c r="P28" s="51" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="53"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="73"/>
+        <v>53</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="75"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" s="73"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="73"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="51"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="59" t="s">
+      <c r="D31" s="54"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="M31" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="P31" s="52"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="59"/>
+      <c r="M31" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="P31" s="64"/>
     </row>
     <row r="32" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="80"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="81"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
     </row>
     <row r="38" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M39" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="N39" s="88"/>
+      <c r="M39" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="84"/>
     </row>
     <row r="40" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N40" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="N40" s="38" t="s">
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="M41" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N41" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="M41" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="N41" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="87"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G42" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="49">
-        <v>1</v>
-      </c>
-      <c r="D43" s="57"/>
+      <c r="C43" s="52">
+        <v>1</v>
+      </c>
+      <c r="D43" s="78"/>
       <c r="E43" s="33">
         <v>6</v>
       </c>
@@ -3995,14 +3991,14 @@
         <v>777</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="49">
+      <c r="C44" s="52">
         <v>2</v>
       </c>
-      <c r="D44" s="57"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="33">
         <v>5</v>
       </c>
@@ -4014,10 +4010,10 @@
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="49">
+      <c r="C45" s="52">
         <v>3</v>
       </c>
-      <c r="D45" s="57"/>
+      <c r="D45" s="78"/>
       <c r="E45" s="33">
         <v>4</v>
       </c>
@@ -4029,10 +4025,10 @@
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="49">
+      <c r="C46" s="52">
         <v>4</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="78"/>
       <c r="E46" s="33">
         <v>3</v>
       </c>
@@ -4044,10 +4040,10 @@
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="49">
+      <c r="C47" s="52">
         <v>5</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="33">
         <v>2</v>
       </c>
@@ -4059,10 +4055,10 @@
       </c>
     </row>
     <row r="48" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="58">
+      <c r="C48" s="53">
         <v>6</v>
       </c>
-      <c r="D48" s="85"/>
+      <c r="D48" s="89"/>
       <c r="E48" s="35">
         <v>1</v>
       </c>
@@ -4075,12 +4071,12 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="84"/>
+      <c r="C55" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="88"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -4090,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>18</v>
@@ -4104,7 +4100,7 @@
         <v>17</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>19</v>
@@ -4112,63 +4108,13 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="H18:I25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="O28:O30"/>
     <mergeCell ref="P28:P30"/>
     <mergeCell ref="D29:E29"/>
@@ -4185,13 +4131,63 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G29"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="N28:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4201,19 +4197,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:R109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4228,7 +4225,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="12"/>
       <c r="L4" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -4238,25 +4235,25 @@
       <c r="R4" s="21"/>
     </row>
     <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="94"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="95"/>
-      <c r="L5" s="86" t="s">
+      <c r="G5" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="97"/>
+      <c r="L5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="96"/>
+      <c r="M5" s="95"/>
       <c r="N5" s="26" t="s">
         <v>5</v>
       </c>
@@ -4270,193 +4267,193 @@
       <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="95"/>
-      <c r="L6" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="51"/>
+      <c r="G6" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="97"/>
+      <c r="L6" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="63"/>
       <c r="N6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51" t="s">
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="52"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="94"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="95"/>
-      <c r="L7" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="51"/>
+      <c r="G7" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="L7" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="63"/>
       <c r="N7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="52"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="64"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="95"/>
-      <c r="L8" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" s="51"/>
+      <c r="G8" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="97"/>
+      <c r="L8" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="63"/>
       <c r="N8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="52"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="57"/>
+      <c r="B9" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="78"/>
       <c r="F9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="90"/>
-      <c r="L9" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="51"/>
+      <c r="G9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="100"/>
+      <c r="L9" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="63"/>
       <c r="N9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="57"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="78"/>
       <c r="F10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="90"/>
-      <c r="L10" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="M10" s="63"/>
+      <c r="G10" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="100"/>
+      <c r="L10" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="66"/>
       <c r="N10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63" t="s">
+      <c r="O10" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="81"/>
+      <c r="R10" s="67"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="79"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="90"/>
+        <v>84</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="85" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="91"/>
+      <c r="G12" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="101"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="L16" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="48"/>
+      <c r="L16" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
     </row>
     <row r="17" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -4466,22 +4463,22 @@
       <c r="L17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="50" t="s">
+      <c r="M17" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="49"/>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="49"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -4491,23 +4488,23 @@
       <c r="L18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="97" t="s">
+      <c r="N18" s="49"/>
+      <c r="O18" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="90" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="49"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -4515,17 +4512,17 @@
         <v>2</v>
       </c>
       <c r="L19" s="31"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="97"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="90"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="49"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -4535,21 +4532,21 @@
       <c r="L20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="97" t="s">
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="90" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="49"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -4557,17 +4554,17 @@
         <v>4</v>
       </c>
       <c r="L21" s="31"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="97"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="90"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="49"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -4577,21 +4574,21 @@
       <c r="L22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="50" t="s">
+      <c r="M22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="97" t="s">
-        <v>80</v>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="90" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -4599,27 +4596,27 @@
         <v>6</v>
       </c>
       <c r="L23" s="31"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="97"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="90"/>
     </row>
     <row r="24" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="32"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="98"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="91"/>
     </row>
     <row r="27" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
@@ -4657,18 +4654,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="48"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
@@ -4677,10 +4674,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -4689,10 +4686,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -4701,10 +4698,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -4713,10 +4710,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="50"/>
+      <c r="C41" s="49"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -4725,10 +4722,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -4737,10 +4734,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -4750,11 +4747,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
@@ -4791,10 +4788,10 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="67"/>
+      <c r="B54" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="48"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
@@ -4854,10 +4851,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="67"/>
+      <c r="B65" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="48"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
@@ -4885,10 +4882,10 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="67"/>
+      <c r="B72" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="48"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
@@ -4948,10 +4945,10 @@
     </row>
     <row r="82" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="67"/>
+      <c r="B83" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="48"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
@@ -4974,35 +4971,35 @@
         <v>2</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="67"/>
+      <c r="B92" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="48"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="47" t="s">
+      <c r="B93" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="48"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="49" t="s">
+      <c r="B94" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="50"/>
+      <c r="C94" s="49"/>
       <c r="D94">
         <v>6</v>
       </c>
@@ -5011,10 +5008,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="50"/>
+      <c r="C95" s="49"/>
       <c r="D95">
         <v>5</v>
       </c>
@@ -5023,10 +5020,10 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="50"/>
+      <c r="C96" s="49"/>
       <c r="D96">
         <v>4</v>
       </c>
@@ -5035,10 +5032,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="50"/>
+      <c r="C97" s="49"/>
       <c r="D97">
         <v>3</v>
       </c>
@@ -5047,10 +5044,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="49" t="s">
+      <c r="B98" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="50"/>
+      <c r="C98" s="49"/>
       <c r="D98">
         <v>2</v>
       </c>
@@ -5059,10 +5056,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="59"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="4">
         <v>1</v>
       </c>
@@ -5072,14 +5069,14 @@
     </row>
     <row r="105" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C106" s="67"/>
+      <c r="B106" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="48"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>18</v>
@@ -5087,7 +5084,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>19</v>
@@ -5103,56 +5100,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="M22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="Q6:R9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B9:C12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
@@ -5169,6 +5116,56 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="M22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9276965-F9D2-4DD9-AF98-4FB32E7DE455}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7447ADDF-3B59-460D-B110-69167CBF7C24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2235" windowWidth="31875" windowHeight="17670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="810" windowWidth="31335" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="141">
   <si>
     <t>Integer x1</t>
   </si>
@@ -430,6 +430,21 @@
   </si>
   <si>
     <t>SmartRules Collect DoubleValue[] test7(Integer param1)</t>
+  </si>
+  <si>
+    <t>Test ruleName</t>
+  </si>
+  <si>
+    <t>Test ruleNumber</t>
+  </si>
+  <si>
+    <t>$rule</t>
+  </si>
+  <si>
+    <t>$ruleId</t>
+  </si>
+  <si>
+    <t>Integer $ruleId</t>
   </si>
 </sst>
 </file>
@@ -674,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -712,20 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,6 +763,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,6 +905,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,9 +926,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -924,12 +937,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:P205"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1317,28 +1324,28 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="33" t="s">
         <v>63</v>
       </c>
       <c r="N4" s="8"/>
@@ -1349,28 +1356,28 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="21"/>
       <c r="M5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="31" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1378,34 +1385,34 @@
       <c r="C6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="51" t="s">
+      <c r="O6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="48" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1413,59 +1420,59 @@
       <c r="C7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="49" t="s">
+      <c r="D7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51" t="s">
+      <c r="O8" s="47"/>
+      <c r="P8" s="48" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1473,273 +1480,273 @@
       <c r="C9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="49" t="s">
+      <c r="D9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
+      <c r="I11" s="48"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50" t="s">
+      <c r="G15" s="46"/>
+      <c r="H15" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="64"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="49" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="63" t="s">
+      <c r="G18" s="76"/>
+      <c r="H18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
+      <c r="D19" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="75"/>
+      <c r="F22" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="75"/>
+      <c r="D23" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="49" t="s">
+      <c r="E24" s="75"/>
+      <c r="F24" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="72"/>
       <c r="M24" s="7" t="s">
         <v>69</v>
       </c>
@@ -1751,14 +1758,14 @@
       <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="75"/>
+      <c r="D25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="72"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -1776,28 +1783,28 @@
       <c r="C26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="49" t="s">
+      <c r="E26" s="75"/>
+      <c r="F26" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="63" t="s">
+      <c r="G26" s="75"/>
+      <c r="H26" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="75"/>
-      <c r="M26" s="62" t="s">
+      <c r="I26" s="72"/>
+      <c r="M26" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="63" t="s">
+      <c r="N26" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="63" t="s">
+      <c r="O26" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="64" t="s">
+      <c r="P26" s="61" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1805,43 +1812,43 @@
       <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="75"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="64"/>
+      <c r="D27" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="72"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="61"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="49" t="s">
+      <c r="E28" s="75"/>
+      <c r="F28" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
-      <c r="M28" s="62" t="s">
+      <c r="G28" s="75"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="72"/>
+      <c r="M28" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="63" t="s">
+      <c r="O28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="64" t="s">
+      <c r="P28" s="61" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1849,60 +1856,60 @@
       <c r="C29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="75"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="64"/>
+      <c r="D29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="54" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="59"/>
-      <c r="M30" s="62" t="s">
+      <c r="G30" s="78"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="56"/>
+      <c r="M30" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63" t="s">
+      <c r="N30" s="60"/>
+      <c r="O30" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="P30" s="64"/>
+      <c r="P30" s="61"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="64"/>
     </row>
     <row r="34" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="48"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1917,10 +1924,10 @@
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="52">
-        <v>1</v>
-      </c>
-      <c r="D37" s="49"/>
+      <c r="C37" s="49">
+        <v>1</v>
+      </c>
+      <c r="D37" s="46"/>
       <c r="E37">
         <v>6</v>
       </c>
@@ -1930,134 +1937,134 @@
       <c r="M37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="68" t="s">
+      <c r="N37" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="O37" s="68"/>
-      <c r="P37" s="27" t="s">
+      <c r="O37" s="65"/>
+      <c r="P37" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="52">
+      <c r="C38" s="49">
         <v>2</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="46"/>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="M38" s="60" t="s">
+      <c r="M38" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="68" t="s">
+      <c r="N38" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="P38" s="69" t="s">
+      <c r="O38" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="66" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="52">
+      <c r="C39" s="49">
         <v>3</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="46"/>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="M39" s="60"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="69"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="66"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C40" s="52">
+      <c r="C40" s="49">
         <v>4</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="46"/>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="M40" s="60" t="s">
+      <c r="M40" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="N40" s="68" t="s">
+      <c r="N40" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="O40" s="68" t="s">
+      <c r="O40" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="P40" s="69" t="s">
+      <c r="P40" s="66" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="52">
+      <c r="C41" s="49">
         <v>5</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="46"/>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
       </c>
-      <c r="M41" s="60"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="69"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="66"/>
     </row>
     <row r="42" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="53">
+      <c r="C42" s="50">
         <v>6</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>6</v>
       </c>
-      <c r="M42" s="60" t="s">
+      <c r="M42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="68" t="s">
+      <c r="N42" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O42" s="68"/>
-      <c r="P42" s="69"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="66"/>
     </row>
     <row r="43" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M43" s="61"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="71"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="68"/>
     </row>
     <row r="44" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2068,10 +2075,10 @@
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="52">
-        <v>1</v>
-      </c>
-      <c r="D47" s="49">
+      <c r="C47" s="49">
+        <v>1</v>
+      </c>
+      <c r="D47" s="46">
         <v>1</v>
       </c>
       <c r="E47">
@@ -2082,10 +2089,10 @@
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="52">
+      <c r="C48" s="49">
         <v>2</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="46">
         <v>2</v>
       </c>
       <c r="E48">
@@ -2096,10 +2103,10 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="52">
+      <c r="C49" s="49">
         <v>3</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="46">
         <v>3</v>
       </c>
       <c r="E49">
@@ -2110,10 +2117,10 @@
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="52">
+      <c r="C50" s="49">
         <v>4</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="46">
         <v>4</v>
       </c>
       <c r="E50">
@@ -2124,10 +2131,10 @@
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="52">
+      <c r="C51" s="49">
         <v>5</v>
       </c>
-      <c r="D51" s="49"/>
+      <c r="D51" s="46"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -2136,10 +2143,10 @@
       </c>
     </row>
     <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="53">
+      <c r="C52" s="50">
         <v>6</v>
       </c>
-      <c r="D52" s="54"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -2149,11 +2156,11 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="48"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="45"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -2190,11 +2197,11 @@
     </row>
     <row r="60" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="48"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="10" t="s">
@@ -2231,69 +2238,69 @@
     </row>
     <row r="67" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
     </row>
     <row r="69" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="52">
-        <v>1</v>
-      </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
+      <c r="C70" s="49">
+        <v>1</v>
+      </c>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="52">
+      <c r="C71" s="49">
         <v>2</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="52">
+      <c r="C72" s="49">
         <v>3</v>
       </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="53">
+      <c r="C73" s="50">
         <v>4</v>
       </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="48"/>
+      <c r="D77" s="45"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="10" t="s">
@@ -2321,20 +2328,20 @@
     </row>
     <row r="85" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="48"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="45"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D87" s="57"/>
+      <c r="D87" s="54"/>
       <c r="E87" s="1" t="s">
         <v>51</v>
       </c>
@@ -2349,10 +2356,10 @@
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C88" s="52">
-        <v>1</v>
-      </c>
-      <c r="D88" s="49"/>
+      <c r="C88" s="49">
+        <v>1</v>
+      </c>
+      <c r="D88" s="46"/>
       <c r="E88">
         <v>6</v>
       </c>
@@ -2367,10 +2374,10 @@
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C89" s="52">
+      <c r="C89" s="49">
         <v>2</v>
       </c>
-      <c r="D89" s="49"/>
+      <c r="D89" s="46"/>
       <c r="E89">
         <v>5</v>
       </c>
@@ -2385,10 +2392,10 @@
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C90" s="52">
+      <c r="C90" s="49">
         <v>3</v>
       </c>
-      <c r="D90" s="49"/>
+      <c r="D90" s="46"/>
       <c r="E90">
         <v>4</v>
       </c>
@@ -2403,10 +2410,10 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C91" s="52">
+      <c r="C91" s="49">
         <v>4</v>
       </c>
-      <c r="D91" s="49"/>
+      <c r="D91" s="46"/>
       <c r="E91">
         <v>3</v>
       </c>
@@ -2421,10 +2428,10 @@
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="52">
+      <c r="C92" s="49">
         <v>5</v>
       </c>
-      <c r="D92" s="49"/>
+      <c r="D92" s="46"/>
       <c r="E92">
         <v>2</v>
       </c>
@@ -2439,10 +2446,10 @@
       </c>
     </row>
     <row r="93" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="53">
+      <c r="C93" s="50">
         <v>6</v>
       </c>
-      <c r="D93" s="54"/>
+      <c r="D93" s="51"/>
       <c r="E93" s="4">
         <v>1</v>
       </c>
@@ -2458,10 +2465,10 @@
     </row>
     <row r="97" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="47" t="s">
+      <c r="C98" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D98" s="48"/>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
@@ -2489,20 +2496,20 @@
     </row>
     <row r="105" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="47" t="s">
+      <c r="C106" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="48"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="45"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D107" s="57"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="1" t="s">
         <v>51</v>
       </c>
@@ -2517,10 +2524,10 @@
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="52">
-        <v>1</v>
-      </c>
-      <c r="D108" s="49"/>
+      <c r="C108" s="49">
+        <v>1</v>
+      </c>
+      <c r="D108" s="46"/>
       <c r="E108">
         <v>6</v>
       </c>
@@ -2535,10 +2542,10 @@
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C109" s="52">
+      <c r="C109" s="49">
         <v>2</v>
       </c>
-      <c r="D109" s="49"/>
+      <c r="D109" s="46"/>
       <c r="E109">
         <v>5</v>
       </c>
@@ -2553,10 +2560,10 @@
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C110" s="52">
+      <c r="C110" s="49">
         <v>3</v>
       </c>
-      <c r="D110" s="49"/>
+      <c r="D110" s="46"/>
       <c r="E110">
         <v>4</v>
       </c>
@@ -2571,10 +2578,10 @@
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C111" s="52">
+      <c r="C111" s="49">
         <v>4</v>
       </c>
-      <c r="D111" s="49"/>
+      <c r="D111" s="46"/>
       <c r="E111">
         <v>3</v>
       </c>
@@ -2589,10 +2596,10 @@
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="52">
+      <c r="C112" s="49">
         <v>5</v>
       </c>
-      <c r="D112" s="49"/>
+      <c r="D112" s="46"/>
       <c r="E112">
         <v>2</v>
       </c>
@@ -2607,10 +2614,10 @@
       </c>
     </row>
     <row r="113" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="53">
+      <c r="C113" s="50">
         <v>6</v>
       </c>
-      <c r="D113" s="54"/>
+      <c r="D113" s="51"/>
       <c r="E113" s="4">
         <v>1</v>
       </c>
@@ -2626,10 +2633,10 @@
     </row>
     <row r="117" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C118" s="47" t="s">
+      <c r="C118" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D118" s="48"/>
+      <c r="D118" s="45"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
@@ -2657,20 +2664,20 @@
     </row>
     <row r="126" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="47" t="s">
+      <c r="C127" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D127" s="55"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="48"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="45"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="54"/>
       <c r="E128" s="1" t="s">
         <v>51</v>
       </c>
@@ -2685,10 +2692,10 @@
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C129" s="52">
-        <v>1</v>
-      </c>
-      <c r="D129" s="49"/>
+      <c r="C129" s="49">
+        <v>1</v>
+      </c>
+      <c r="D129" s="46"/>
       <c r="E129">
         <v>6</v>
       </c>
@@ -2703,10 +2710,10 @@
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C130" s="52">
+      <c r="C130" s="49">
         <v>2</v>
       </c>
-      <c r="D130" s="49"/>
+      <c r="D130" s="46"/>
       <c r="E130">
         <v>5</v>
       </c>
@@ -2721,10 +2728,10 @@
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C131" s="52">
+      <c r="C131" s="49">
         <v>3</v>
       </c>
-      <c r="D131" s="49"/>
+      <c r="D131" s="46"/>
       <c r="E131">
         <v>4</v>
       </c>
@@ -2739,10 +2746,10 @@
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C132" s="52">
+      <c r="C132" s="49">
         <v>4</v>
       </c>
-      <c r="D132" s="49"/>
+      <c r="D132" s="46"/>
       <c r="E132">
         <v>3</v>
       </c>
@@ -2757,10 +2764,10 @@
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C133" s="52">
+      <c r="C133" s="49">
         <v>5</v>
       </c>
-      <c r="D133" s="49"/>
+      <c r="D133" s="46"/>
       <c r="E133">
         <v>2</v>
       </c>
@@ -2775,10 +2782,10 @@
       </c>
     </row>
     <row r="134" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="53">
+      <c r="C134" s="50">
         <v>6</v>
       </c>
-      <c r="D134" s="54"/>
+      <c r="D134" s="51"/>
       <c r="E134" s="4">
         <v>1</v>
       </c>
@@ -2794,10 +2801,10 @@
     </row>
     <row r="138" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D139" s="48"/>
+      <c r="D139" s="45"/>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C140" s="10" t="s">
@@ -2825,17 +2832,17 @@
     </row>
     <row r="146" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C147" s="47" t="s">
+      <c r="C147" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D147" s="47"/>
-      <c r="E147" s="45"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="42"/>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="56" t="s">
+      <c r="C148" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D148" s="57" t="s">
+      <c r="D148" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -2843,10 +2850,10 @@
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="52">
-        <v>1</v>
-      </c>
-      <c r="D149" s="49">
+      <c r="C149" s="49">
+        <v>1</v>
+      </c>
+      <c r="D149" s="46">
         <v>1</v>
       </c>
       <c r="E149" s="3">
@@ -2854,10 +2861,10 @@
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="52">
+      <c r="C150" s="49">
         <v>2</v>
       </c>
-      <c r="D150" s="49">
+      <c r="D150" s="46">
         <v>2</v>
       </c>
       <c r="E150" s="3">
@@ -2865,10 +2872,10 @@
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="52">
+      <c r="C151" s="49">
         <v>3</v>
       </c>
-      <c r="D151" s="49">
+      <c r="D151" s="46">
         <v>3</v>
       </c>
       <c r="E151" s="3">
@@ -2876,10 +2883,10 @@
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="52">
+      <c r="C152" s="49">
         <v>4</v>
       </c>
-      <c r="D152" s="49">
+      <c r="D152" s="46">
         <v>4</v>
       </c>
       <c r="E152" s="3">
@@ -2887,10 +2894,10 @@
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="52">
+      <c r="C153" s="49">
         <v>5</v>
       </c>
-      <c r="D153" s="49">
+      <c r="D153" s="46">
         <v>5</v>
       </c>
       <c r="E153" s="3">
@@ -2898,10 +2905,10 @@
       </c>
     </row>
     <row r="154" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="53">
+      <c r="C154" s="50">
         <v>6</v>
       </c>
-      <c r="D154" s="54">
+      <c r="D154" s="51">
         <v>6</v>
       </c>
       <c r="E154" s="5">
@@ -2910,20 +2917,20 @@
     </row>
     <row r="161" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" s="45" t="s">
+      <c r="C162" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D162" s="45"/>
-      <c r="E162" s="46"/>
+      <c r="D162" s="42"/>
+      <c r="E162" s="43"/>
     </row>
     <row r="163" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D163" s="36" t="s">
+      <c r="D163" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E163" s="37" t="s">
+      <c r="E163" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2931,10 +2938,10 @@
       <c r="C164" s="10">
         <v>1</v>
       </c>
-      <c r="D164" s="33">
-        <v>1</v>
-      </c>
-      <c r="E164" s="38">
+      <c r="D164" s="25">
+        <v>1</v>
+      </c>
+      <c r="E164" s="30">
         <v>1</v>
       </c>
     </row>
@@ -2942,10 +2949,10 @@
       <c r="C165" s="10">
         <v>2</v>
       </c>
-      <c r="D165" s="33">
+      <c r="D165" s="25">
         <v>2</v>
       </c>
-      <c r="E165" s="38">
+      <c r="E165" s="30">
         <v>2</v>
       </c>
     </row>
@@ -2953,10 +2960,10 @@
       <c r="C166" s="10">
         <v>3</v>
       </c>
-      <c r="D166" s="33">
+      <c r="D166" s="25">
         <v>3</v>
       </c>
-      <c r="E166" s="38">
+      <c r="E166" s="30">
         <v>3</v>
       </c>
     </row>
@@ -2964,10 +2971,10 @@
       <c r="C167" s="10">
         <v>4</v>
       </c>
-      <c r="D167" s="33">
+      <c r="D167" s="25">
         <v>4</v>
       </c>
-      <c r="E167" s="38">
+      <c r="E167" s="30">
         <v>4</v>
       </c>
     </row>
@@ -2975,10 +2982,10 @@
       <c r="C168" s="10">
         <v>5</v>
       </c>
-      <c r="D168" s="33">
+      <c r="D168" s="25">
         <v>5</v>
       </c>
-      <c r="E168" s="38">
+      <c r="E168" s="30">
         <v>5</v>
       </c>
     </row>
@@ -2986,19 +2993,19 @@
       <c r="C169" s="11">
         <v>6</v>
       </c>
-      <c r="D169" s="35">
+      <c r="D169" s="27">
         <v>6</v>
       </c>
-      <c r="E169" s="34">
+      <c r="E169" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="173" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C174" s="47" t="s">
+      <c r="C174" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D174" s="48"/>
+      <c r="D174" s="45"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="10" t="s">
@@ -3026,10 +3033,10 @@
     </row>
     <row r="181" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C182" s="47" t="s">
+      <c r="C182" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D182" s="48"/>
+      <c r="D182" s="45"/>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="10" t="s">
@@ -3057,20 +3064,20 @@
     </row>
     <row r="189" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C190" s="45" t="s">
+      <c r="C190" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D190" s="45"/>
-      <c r="E190" s="46"/>
+      <c r="D190" s="42"/>
+      <c r="E190" s="43"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D191" s="36" t="s">
+      <c r="D191" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E191" s="37" t="s">
+      <c r="E191" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3078,10 +3085,10 @@
       <c r="C192" s="10">
         <v>1</v>
       </c>
-      <c r="D192" s="33">
-        <v>1</v>
-      </c>
-      <c r="E192" s="38">
+      <c r="D192" s="25">
+        <v>1</v>
+      </c>
+      <c r="E192" s="30">
         <v>1</v>
       </c>
     </row>
@@ -3089,10 +3096,10 @@
       <c r="C193" s="10">
         <v>2</v>
       </c>
-      <c r="D193" s="33">
+      <c r="D193" s="25">
         <v>2</v>
       </c>
-      <c r="E193" s="38">
+      <c r="E193" s="30">
         <v>2</v>
       </c>
     </row>
@@ -3100,10 +3107,10 @@
       <c r="C194" s="10">
         <v>3</v>
       </c>
-      <c r="D194" s="33">
+      <c r="D194" s="25">
         <v>3</v>
       </c>
-      <c r="E194" s="38">
+      <c r="E194" s="30">
         <v>3</v>
       </c>
     </row>
@@ -3111,10 +3118,10 @@
       <c r="C195" s="10">
         <v>4</v>
       </c>
-      <c r="D195" s="33">
+      <c r="D195" s="25">
         <v>4</v>
       </c>
-      <c r="E195" s="38">
+      <c r="E195" s="30">
         <v>4</v>
       </c>
     </row>
@@ -3122,10 +3129,10 @@
       <c r="C196" s="10">
         <v>5</v>
       </c>
-      <c r="D196" s="33">
+      <c r="D196" s="25">
         <v>5</v>
       </c>
-      <c r="E196" s="38">
+      <c r="E196" s="30">
         <v>5</v>
       </c>
     </row>
@@ -3133,19 +3140,19 @@
       <c r="C197" s="11">
         <v>6</v>
       </c>
-      <c r="D197" s="35">
+      <c r="D197" s="27">
         <v>6</v>
       </c>
-      <c r="E197" s="34">
+      <c r="E197" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="201" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C202" s="47" t="s">
+      <c r="C202" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D202" s="48"/>
+      <c r="D202" s="45"/>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="10" t="s">
@@ -3341,28 +3348,28 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="33" t="s">
         <v>99</v>
       </c>
       <c r="N4" s="8"/>
@@ -3373,28 +3380,28 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="21"/>
       <c r="M5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3402,34 +3409,34 @@
       <c r="C6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="51" t="s">
+      <c r="O6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="48" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3437,59 +3444,59 @@
       <c r="C7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="49" t="s">
+      <c r="D7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51" t="s">
+      <c r="O8" s="47"/>
+      <c r="P8" s="48" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3497,273 +3504,273 @@
       <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="49" t="s">
+      <c r="D9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
+      <c r="I11" s="48"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50" t="s">
+      <c r="G15" s="46"/>
+      <c r="H15" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="64"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="49" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="63" t="s">
+      <c r="G18" s="76"/>
+      <c r="H18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
+      <c r="D19" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="75"/>
+      <c r="F22" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="75"/>
+      <c r="D23" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="49" t="s">
+      <c r="E24" s="75"/>
+      <c r="F24" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="72"/>
       <c r="M24" s="7" t="s">
         <v>100</v>
       </c>
@@ -3775,14 +3782,14 @@
       <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="75"/>
+      <c r="D25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="72"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -3800,28 +3807,28 @@
       <c r="C26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="49" t="s">
+      <c r="E26" s="75"/>
+      <c r="F26" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="63" t="s">
+      <c r="G26" s="75"/>
+      <c r="H26" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="75"/>
-      <c r="M26" s="62" t="s">
+      <c r="I26" s="72"/>
+      <c r="M26" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="63" t="s">
+      <c r="N26" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="63" t="s">
+      <c r="O26" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="64" t="s">
+      <c r="P26" s="61" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3829,43 +3836,43 @@
       <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="75"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="64"/>
+      <c r="D27" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="72"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="61"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="49" t="s">
+      <c r="E28" s="75"/>
+      <c r="F28" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
-      <c r="M28" s="62" t="s">
+      <c r="G28" s="75"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="72"/>
+      <c r="M28" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="63" t="s">
+      <c r="O28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="48" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3873,222 +3880,222 @@
       <c r="C29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="75"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="51"/>
+      <c r="D29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="48"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="78" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="50" t="s">
+      <c r="G30" s="75"/>
+      <c r="H30" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="51"/>
+      <c r="I30" s="48"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="48"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="54" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="59"/>
-      <c r="M31" s="62" t="s">
+      <c r="G31" s="78"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="56"/>
+      <c r="M31" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63" t="s">
+      <c r="N31" s="60"/>
+      <c r="O31" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="P31" s="64"/>
+      <c r="P31" s="61"/>
     </row>
     <row r="32" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
     </row>
     <row r="38" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="N39" s="84"/>
+      <c r="N39" s="81"/>
     </row>
     <row r="40" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M40" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="N40" s="38" t="s">
+      <c r="N40" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
       <c r="M41" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N41" s="34" t="s">
+      <c r="N41" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="83"/>
-      <c r="E42" s="43" t="s">
+      <c r="D42" s="80"/>
+      <c r="E42" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="52">
-        <v>1</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="33">
+      <c r="C43" s="49">
+        <v>1</v>
+      </c>
+      <c r="D43" s="75"/>
+      <c r="E43" s="25">
         <v>6</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="25">
         <v>777</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="52">
+      <c r="C44" s="49">
         <v>2</v>
       </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="33">
+      <c r="D44" s="75"/>
+      <c r="E44" s="25">
         <v>5</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="25">
         <v>2</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="52">
+      <c r="C45" s="49">
         <v>3</v>
       </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="33">
+      <c r="D45" s="75"/>
+      <c r="E45" s="25">
         <v>4</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="25">
         <v>3</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="52">
+      <c r="C46" s="49">
         <v>4</v>
       </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="33">
+      <c r="D46" s="75"/>
+      <c r="E46" s="25">
         <v>3</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="25">
         <v>4</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="52">
+      <c r="C47" s="49">
         <v>5</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="33">
+      <c r="D47" s="75"/>
+      <c r="E47" s="25">
         <v>2</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="25">
         <v>5</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="53">
+      <c r="C48" s="50">
         <v>6</v>
       </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="35">
-        <v>1</v>
-      </c>
-      <c r="F48" s="35">
+      <c r="D48" s="86"/>
+      <c r="E48" s="27">
+        <v>1</v>
+      </c>
+      <c r="F48" s="27">
         <v>6</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="88"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="85"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="38" t="s">
+      <c r="F56" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4096,13 +4103,13 @@
       <c r="C57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4197,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4207,7 +4214,7 @@
     <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="50" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="31" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
@@ -4215,7 +4222,7 @@
   <sheetData>
     <row r="3" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
@@ -4224,249 +4231,273 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="12"/>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="96" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="94"/>
+      <c r="F5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="L5" s="82" t="s">
+      <c r="H5" s="95"/>
+      <c r="L5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="26" t="s">
+      <c r="M5" s="80"/>
+      <c r="N5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22" t="s">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="23"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="96" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="L6" s="62" t="s">
+      <c r="H6" s="95"/>
+      <c r="L6" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63" t="s">
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="64"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="96" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="L7" s="62" t="s">
+      <c r="H7" s="95"/>
+      <c r="L7" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="96" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="L8" s="62" t="s">
+      <c r="H8" s="95"/>
+      <c r="L8" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="G9" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="L9" s="62" t="s">
+      <c r="H9" s="87"/>
+      <c r="L9" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
-    </row>
-    <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="78" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="59"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="L10" s="65" t="s">
+      <c r="H10" s="87"/>
+      <c r="L10" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="66"/>
+      <c r="M10" s="75"/>
       <c r="N10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66" t="s">
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="67"/>
+      <c r="R10" s="87"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="62"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="33" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="100"/>
+      <c r="H11" s="87"/>
+      <c r="L11" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="75"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="87"/>
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="89" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="86"/>
+      <c r="F12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="89" t="s">
+      <c r="G12" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="101"/>
+      <c r="H12" s="88"/>
+      <c r="L12" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="86"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="R12" s="88"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="48"/>
-      <c r="L16" s="92" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="45"/>
+      <c r="L16" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
     </row>
     <row r="17" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="49"/>
+      <c r="N17" s="46"/>
       <c r="O17" t="s">
         <v>73</v>
       </c>
@@ -4475,148 +4506,148 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="46"/>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="90" t="s">
+      <c r="N18" s="46"/>
+      <c r="O18" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="89" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="46"/>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="90"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="46"/>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="90" t="s">
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="89" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="46"/>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="90"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="46"/>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="49" t="s">
+      <c r="M22" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="90" t="s">
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="89" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="5">
         <v>6</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="90"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="89"/>
     </row>
     <row r="24" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="32"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="91"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="90"/>
     </row>
     <row r="27" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="48"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
@@ -4654,18 +4685,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="48"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="45"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
@@ -4674,10 +4705,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="46"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -4686,10 +4717,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="46"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -4698,10 +4729,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="46"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -4710,10 +4741,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="46"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -4722,10 +4753,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="46"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -4734,10 +4765,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="54"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -4747,11 +4778,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="48"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
@@ -4788,10 +4819,10 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="48"/>
+      <c r="C54" s="45"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
@@ -4851,10 +4882,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="48"/>
+      <c r="C65" s="45"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
@@ -4882,10 +4913,10 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="48"/>
+      <c r="C72" s="45"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
@@ -4945,10 +4976,10 @@
     </row>
     <row r="82" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="48"/>
+      <c r="C83" s="45"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
@@ -4976,18 +5007,18 @@
     </row>
     <row r="91" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="48"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="45"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="57"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="1" t="s">
         <v>80</v>
       </c>
@@ -4996,10 +5027,10 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="49"/>
+      <c r="C94" s="46"/>
       <c r="D94">
         <v>6</v>
       </c>
@@ -5008,10 +5039,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="49"/>
+      <c r="C95" s="46"/>
       <c r="D95">
         <v>5</v>
       </c>
@@ -5020,10 +5051,10 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="49"/>
+      <c r="C96" s="46"/>
       <c r="D96">
         <v>4</v>
       </c>
@@ -5032,10 +5063,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="49"/>
+      <c r="C97" s="46"/>
       <c r="D97">
         <v>3</v>
       </c>
@@ -5044,10 +5075,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="49"/>
+      <c r="C98" s="46"/>
       <c r="D98">
         <v>2</v>
       </c>
@@ -5056,10 +5087,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="54"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="4">
         <v>1</v>
       </c>
@@ -5069,10 +5100,10 @@
     </row>
     <row r="105" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="47" t="s">
+      <c r="B106" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C106" s="48"/>
+      <c r="C106" s="45"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
@@ -5099,7 +5130,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="72">
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
@@ -5166,6 +5197,12 @@
     <mergeCell ref="M20:P21"/>
     <mergeCell ref="Q18:Q19"/>
     <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7447ADDF-3B59-460D-B110-69167CBF7C24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3924A142-9187-4154-B877-3654CD4B8FC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="810" windowWidth="31335" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -438,13 +438,13 @@
     <t>Test ruleNumber</t>
   </si>
   <si>
-    <t>$rule</t>
-  </si>
-  <si>
-    <t>$ruleId</t>
-  </si>
-  <si>
-    <t>Integer $ruleId</t>
+    <t>$Rule</t>
+  </si>
+  <si>
+    <t>$RuleId</t>
+  </si>
+  <si>
+    <t>Integer $RuleId</t>
   </si>
 </sst>
 </file>
@@ -772,115 +772,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,24 +905,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,18 +937,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G29"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1324,25 +1324,25 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M4" s="33" t="s">
@@ -1385,34 +1385,34 @@
       <c r="C6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="48" t="s">
+      <c r="O6" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="70" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1420,59 +1420,59 @@
       <c r="C7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="46" t="s">
+      <c r="D7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="70"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="57" t="s">
+      <c r="M8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="70" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1480,273 +1480,273 @@
       <c r="C9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="46" t="s">
+      <c r="D9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="70"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="70"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
+      <c r="I11" s="70"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="70"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46" t="s">
+      <c r="E13" s="47"/>
+      <c r="F13" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="48"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="47"/>
+      <c r="F17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="60" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="53"/>
+      <c r="F18" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="60" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="72"/>
+      <c r="D19" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="72"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="72"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="54"/>
+      <c r="F22" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="72"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="72"/>
+      <c r="D23" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="46" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="72"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="50"/>
       <c r="M24" s="7" t="s">
         <v>69</v>
       </c>
@@ -1758,14 +1758,14 @@
       <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="72"/>
+      <c r="D25" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="50"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -1783,28 +1783,28 @@
       <c r="C26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="46" t="s">
+      <c r="E26" s="54"/>
+      <c r="F26" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="60" t="s">
+      <c r="G26" s="54"/>
+      <c r="H26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="72"/>
-      <c r="M26" s="59" t="s">
+      <c r="I26" s="50"/>
+      <c r="M26" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="60" t="s">
+      <c r="N26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="60" t="s">
+      <c r="O26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="61" t="s">
+      <c r="P26" s="49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1812,43 +1812,43 @@
       <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="72"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="61"/>
+      <c r="D27" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="50"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="46" t="s">
+      <c r="E28" s="54"/>
+      <c r="F28" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="72"/>
-      <c r="M28" s="59" t="s">
+      <c r="G28" s="54"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="50"/>
+      <c r="M28" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="60" t="s">
+      <c r="N28" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="60" t="s">
+      <c r="O28" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="61" t="s">
+      <c r="P28" s="49" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1856,60 +1856,60 @@
       <c r="C29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="61"/>
+      <c r="D29" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="50"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="51" t="s">
+      <c r="D30" s="56"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="56"/>
-      <c r="M30" s="59" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="M30" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60" t="s">
+      <c r="N30" s="48"/>
+      <c r="O30" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="P30" s="61"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="62"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="64"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="78"/>
     </row>
     <row r="34" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="45"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="54"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1924,10 +1924,10 @@
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="49">
-        <v>1</v>
-      </c>
-      <c r="D37" s="46"/>
+      <c r="C37" s="46">
+        <v>1</v>
+      </c>
+      <c r="D37" s="47"/>
       <c r="E37">
         <v>6</v>
       </c>
@@ -1937,134 +1937,134 @@
       <c r="M37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="65" t="s">
+      <c r="N37" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="O37" s="65"/>
+      <c r="O37" s="71"/>
       <c r="P37" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="49">
+      <c r="C38" s="46">
         <v>2</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="47"/>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="M38" s="57" t="s">
+      <c r="M38" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="65" t="s">
+      <c r="N38" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="P38" s="66" t="s">
+      <c r="O38" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="65" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="49">
+      <c r="C39" s="46">
         <v>3</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="M39" s="57"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="65"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C40" s="49">
+      <c r="C40" s="46">
         <v>4</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="47"/>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="M40" s="57" t="s">
+      <c r="M40" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N40" s="65" t="s">
+      <c r="N40" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="O40" s="65" t="s">
+      <c r="O40" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="P40" s="66" t="s">
+      <c r="P40" s="65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="49">
+      <c r="C41" s="46">
         <v>5</v>
       </c>
-      <c r="D41" s="46"/>
+      <c r="D41" s="47"/>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
       </c>
-      <c r="M41" s="57"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="65"/>
     </row>
     <row r="42" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="50">
+      <c r="C42" s="55">
         <v>6</v>
       </c>
-      <c r="D42" s="51"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>6</v>
       </c>
-      <c r="M42" s="57" t="s">
+      <c r="M42" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="65" t="s">
+      <c r="N42" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O42" s="65"/>
-      <c r="P42" s="66"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="65"/>
     </row>
     <row r="43" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M43" s="58"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="68"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="74"/>
     </row>
     <row r="44" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2075,10 +2075,10 @@
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="49">
-        <v>1</v>
-      </c>
-      <c r="D47" s="46">
+      <c r="C47" s="46">
+        <v>1</v>
+      </c>
+      <c r="D47" s="47">
         <v>1</v>
       </c>
       <c r="E47">
@@ -2089,10 +2089,10 @@
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="49">
+      <c r="C48" s="46">
         <v>2</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="47">
         <v>2</v>
       </c>
       <c r="E48">
@@ -2103,10 +2103,10 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="49">
+      <c r="C49" s="46">
         <v>3</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="47">
         <v>3</v>
       </c>
       <c r="E49">
@@ -2117,10 +2117,10 @@
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="49">
+      <c r="C50" s="46">
         <v>4</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="47">
         <v>4</v>
       </c>
       <c r="E50">
@@ -2131,10 +2131,10 @@
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="49">
+      <c r="C51" s="46">
         <v>5</v>
       </c>
-      <c r="D51" s="46"/>
+      <c r="D51" s="47"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -2143,10 +2143,10 @@
       </c>
     </row>
     <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="50">
+      <c r="C52" s="55">
         <v>6</v>
       </c>
-      <c r="D52" s="51"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -2156,11 +2156,11 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="45"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="64"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -2197,11 +2197,11 @@
     </row>
     <row r="60" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="52"/>
-      <c r="E61" s="45"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="64"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="10" t="s">
@@ -2238,69 +2238,69 @@
     </row>
     <row r="67" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
     </row>
     <row r="69" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="49">
-        <v>1</v>
-      </c>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
+      <c r="C70" s="46">
+        <v>1</v>
+      </c>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="49">
+      <c r="C71" s="46">
         <v>2</v>
       </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="49">
+      <c r="C72" s="46">
         <v>3</v>
       </c>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
       <c r="F72" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="50">
+      <c r="C73" s="55">
         <v>4</v>
       </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="45"/>
+      <c r="D77" s="64"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="10" t="s">
@@ -2328,20 +2328,20 @@
     </row>
     <row r="85" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="44" t="s">
+      <c r="C86" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="45"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="64"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D87" s="54"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="1" t="s">
         <v>51</v>
       </c>
@@ -2356,10 +2356,10 @@
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C88" s="49">
-        <v>1</v>
-      </c>
-      <c r="D88" s="46"/>
+      <c r="C88" s="46">
+        <v>1</v>
+      </c>
+      <c r="D88" s="47"/>
       <c r="E88">
         <v>6</v>
       </c>
@@ -2374,10 +2374,10 @@
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C89" s="49">
+      <c r="C89" s="46">
         <v>2</v>
       </c>
-      <c r="D89" s="46"/>
+      <c r="D89" s="47"/>
       <c r="E89">
         <v>5</v>
       </c>
@@ -2392,10 +2392,10 @@
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C90" s="49">
+      <c r="C90" s="46">
         <v>3</v>
       </c>
-      <c r="D90" s="46"/>
+      <c r="D90" s="47"/>
       <c r="E90">
         <v>4</v>
       </c>
@@ -2410,10 +2410,10 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C91" s="49">
+      <c r="C91" s="46">
         <v>4</v>
       </c>
-      <c r="D91" s="46"/>
+      <c r="D91" s="47"/>
       <c r="E91">
         <v>3</v>
       </c>
@@ -2428,10 +2428,10 @@
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="49">
+      <c r="C92" s="46">
         <v>5</v>
       </c>
-      <c r="D92" s="46"/>
+      <c r="D92" s="47"/>
       <c r="E92">
         <v>2</v>
       </c>
@@ -2446,10 +2446,10 @@
       </c>
     </row>
     <row r="93" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="50">
+      <c r="C93" s="55">
         <v>6</v>
       </c>
-      <c r="D93" s="51"/>
+      <c r="D93" s="56"/>
       <c r="E93" s="4">
         <v>1</v>
       </c>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="97" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="44" t="s">
+      <c r="C98" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D98" s="45"/>
+      <c r="D98" s="64"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
@@ -2496,20 +2496,20 @@
     </row>
     <row r="105" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="44" t="s">
+      <c r="C106" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="45"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="64"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D107" s="54"/>
+      <c r="D107" s="45"/>
       <c r="E107" s="1" t="s">
         <v>51</v>
       </c>
@@ -2524,10 +2524,10 @@
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="49">
-        <v>1</v>
-      </c>
-      <c r="D108" s="46"/>
+      <c r="C108" s="46">
+        <v>1</v>
+      </c>
+      <c r="D108" s="47"/>
       <c r="E108">
         <v>6</v>
       </c>
@@ -2542,10 +2542,10 @@
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C109" s="49">
+      <c r="C109" s="46">
         <v>2</v>
       </c>
-      <c r="D109" s="46"/>
+      <c r="D109" s="47"/>
       <c r="E109">
         <v>5</v>
       </c>
@@ -2560,10 +2560,10 @@
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C110" s="49">
+      <c r="C110" s="46">
         <v>3</v>
       </c>
-      <c r="D110" s="46"/>
+      <c r="D110" s="47"/>
       <c r="E110">
         <v>4</v>
       </c>
@@ -2578,10 +2578,10 @@
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C111" s="49">
+      <c r="C111" s="46">
         <v>4</v>
       </c>
-      <c r="D111" s="46"/>
+      <c r="D111" s="47"/>
       <c r="E111">
         <v>3</v>
       </c>
@@ -2596,10 +2596,10 @@
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="49">
+      <c r="C112" s="46">
         <v>5</v>
       </c>
-      <c r="D112" s="46"/>
+      <c r="D112" s="47"/>
       <c r="E112">
         <v>2</v>
       </c>
@@ -2614,10 +2614,10 @@
       </c>
     </row>
     <row r="113" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="50">
+      <c r="C113" s="55">
         <v>6</v>
       </c>
-      <c r="D113" s="51"/>
+      <c r="D113" s="56"/>
       <c r="E113" s="4">
         <v>1</v>
       </c>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="117" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C118" s="44" t="s">
+      <c r="C118" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D118" s="45"/>
+      <c r="D118" s="64"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
@@ -2664,20 +2664,20 @@
     </row>
     <row r="126" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="44" t="s">
+      <c r="C127" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="45"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="64"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C128" s="53" t="s">
+      <c r="C128" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D128" s="54"/>
+      <c r="D128" s="45"/>
       <c r="E128" s="1" t="s">
         <v>51</v>
       </c>
@@ -2692,10 +2692,10 @@
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C129" s="49">
-        <v>1</v>
-      </c>
-      <c r="D129" s="46"/>
+      <c r="C129" s="46">
+        <v>1</v>
+      </c>
+      <c r="D129" s="47"/>
       <c r="E129">
         <v>6</v>
       </c>
@@ -2710,10 +2710,10 @@
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C130" s="49">
+      <c r="C130" s="46">
         <v>2</v>
       </c>
-      <c r="D130" s="46"/>
+      <c r="D130" s="47"/>
       <c r="E130">
         <v>5</v>
       </c>
@@ -2728,10 +2728,10 @@
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C131" s="49">
+      <c r="C131" s="46">
         <v>3</v>
       </c>
-      <c r="D131" s="46"/>
+      <c r="D131" s="47"/>
       <c r="E131">
         <v>4</v>
       </c>
@@ -2746,10 +2746,10 @@
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C132" s="49">
+      <c r="C132" s="46">
         <v>4</v>
       </c>
-      <c r="D132" s="46"/>
+      <c r="D132" s="47"/>
       <c r="E132">
         <v>3</v>
       </c>
@@ -2764,10 +2764,10 @@
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C133" s="49">
+      <c r="C133" s="46">
         <v>5</v>
       </c>
-      <c r="D133" s="46"/>
+      <c r="D133" s="47"/>
       <c r="E133">
         <v>2</v>
       </c>
@@ -2782,10 +2782,10 @@
       </c>
     </row>
     <row r="134" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="50">
+      <c r="C134" s="55">
         <v>6</v>
       </c>
-      <c r="D134" s="51"/>
+      <c r="D134" s="56"/>
       <c r="E134" s="4">
         <v>1</v>
       </c>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="138" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C139" s="44" t="s">
+      <c r="C139" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D139" s="45"/>
+      <c r="D139" s="64"/>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C140" s="10" t="s">
@@ -2832,17 +2832,17 @@
     </row>
     <row r="146" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C147" s="44" t="s">
+      <c r="C147" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D147" s="44"/>
-      <c r="E147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="43"/>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="53" t="s">
+      <c r="C148" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D148" s="54" t="s">
+      <c r="D148" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -2850,10 +2850,10 @@
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="49">
-        <v>1</v>
-      </c>
-      <c r="D149" s="46">
+      <c r="C149" s="46">
+        <v>1</v>
+      </c>
+      <c r="D149" s="47">
         <v>1</v>
       </c>
       <c r="E149" s="3">
@@ -2861,10 +2861,10 @@
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="49">
+      <c r="C150" s="46">
         <v>2</v>
       </c>
-      <c r="D150" s="46">
+      <c r="D150" s="47">
         <v>2</v>
       </c>
       <c r="E150" s="3">
@@ -2872,10 +2872,10 @@
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="49">
+      <c r="C151" s="46">
         <v>3</v>
       </c>
-      <c r="D151" s="46">
+      <c r="D151" s="47">
         <v>3</v>
       </c>
       <c r="E151" s="3">
@@ -2883,10 +2883,10 @@
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="49">
+      <c r="C152" s="46">
         <v>4</v>
       </c>
-      <c r="D152" s="46">
+      <c r="D152" s="47">
         <v>4</v>
       </c>
       <c r="E152" s="3">
@@ -2894,10 +2894,10 @@
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="49">
+      <c r="C153" s="46">
         <v>5</v>
       </c>
-      <c r="D153" s="46">
+      <c r="D153" s="47">
         <v>5</v>
       </c>
       <c r="E153" s="3">
@@ -2905,10 +2905,10 @@
       </c>
     </row>
     <row r="154" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="50">
+      <c r="C154" s="55">
         <v>6</v>
       </c>
-      <c r="D154" s="51">
+      <c r="D154" s="56">
         <v>6</v>
       </c>
       <c r="E154" s="5">
@@ -2917,11 +2917,11 @@
     </row>
     <row r="161" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" s="42" t="s">
+      <c r="C162" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D162" s="42"/>
-      <c r="E162" s="43"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="57"/>
     </row>
     <row r="163" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="13" t="s">
@@ -3002,10 +3002,10 @@
     </row>
     <row r="173" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C174" s="44" t="s">
+      <c r="C174" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D174" s="45"/>
+      <c r="D174" s="64"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="10" t="s">
@@ -3033,10 +3033,10 @@
     </row>
     <row r="181" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C182" s="44" t="s">
+      <c r="C182" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D182" s="45"/>
+      <c r="D182" s="64"/>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="10" t="s">
@@ -3064,11 +3064,11 @@
     </row>
     <row r="189" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C190" s="42" t="s">
+      <c r="C190" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D190" s="42"/>
-      <c r="E190" s="43"/>
+      <c r="D190" s="43"/>
+      <c r="E190" s="57"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="13" t="s">
@@ -3149,10 +3149,10 @@
     </row>
     <row r="201" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C202" s="44" t="s">
+      <c r="C202" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D202" s="45"/>
+      <c r="D202" s="64"/>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="10" t="s">
@@ -3180,6 +3180,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="H26:I29"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C147:E147"/>
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C149:D149"/>
@@ -3204,125 +3323,6 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="H26:I29"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3348,25 +3348,25 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M4" s="33" t="s">
@@ -3409,34 +3409,34 @@
       <c r="C6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="48" t="s">
+      <c r="O6" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="70" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3444,59 +3444,59 @@
       <c r="C7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="46" t="s">
+      <c r="D7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="70"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="57" t="s">
+      <c r="M8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="70" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3504,273 +3504,273 @@
       <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="46" t="s">
+      <c r="D9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="70"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="70"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
+      <c r="I11" s="70"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="70"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46" t="s">
+      <c r="E13" s="47"/>
+      <c r="F13" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="48"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="47"/>
+      <c r="F17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="60" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="53"/>
+      <c r="F18" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="60" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="72"/>
+      <c r="D19" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="72"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="72"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="54"/>
+      <c r="F22" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="72"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="72"/>
+      <c r="D23" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="46" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="72"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="50"/>
       <c r="M24" s="7" t="s">
         <v>100</v>
       </c>
@@ -3782,14 +3782,14 @@
       <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="72"/>
+      <c r="D25" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="50"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -3807,28 +3807,28 @@
       <c r="C26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="46" t="s">
+      <c r="E26" s="54"/>
+      <c r="F26" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="60" t="s">
+      <c r="G26" s="54"/>
+      <c r="H26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="72"/>
-      <c r="M26" s="59" t="s">
+      <c r="I26" s="50"/>
+      <c r="M26" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="60" t="s">
+      <c r="N26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="60" t="s">
+      <c r="O26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="61" t="s">
+      <c r="P26" s="49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3836,43 +3836,43 @@
       <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="72"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="61"/>
+      <c r="D27" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="50"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="46" t="s">
+      <c r="E28" s="54"/>
+      <c r="F28" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="72"/>
-      <c r="M28" s="59" t="s">
+      <c r="G28" s="54"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="50"/>
+      <c r="M28" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="60" t="s">
+      <c r="N28" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="60" t="s">
+      <c r="O28" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="48" t="s">
+      <c r="P28" s="70" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3880,73 +3880,73 @@
       <c r="C29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="48"/>
+      <c r="D29" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="50"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="70"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="75" t="s">
+      <c r="E30" s="47"/>
+      <c r="F30" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="47" t="s">
+      <c r="G30" s="54"/>
+      <c r="H30" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="48"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="48"/>
+      <c r="I30" s="70"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="70"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="51" t="s">
+      <c r="D31" s="56"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="56"/>
-      <c r="M31" s="59" t="s">
+      <c r="G31" s="62"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="M31" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60" t="s">
+      <c r="N31" s="48"/>
+      <c r="O31" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="P31" s="61"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="32" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="64"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="78"/>
     </row>
     <row r="38" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M39" s="42" t="s">
+      <c r="M39" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="N39" s="81"/>
+      <c r="N39" s="85"/>
     </row>
     <row r="40" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M40" s="10" t="s">
@@ -3957,13 +3957,13 @@
       </c>
     </row>
     <row r="41" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
       <c r="M41" s="11" t="s">
         <v>107</v>
       </c>
@@ -3972,10 +3972,10 @@
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="80"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="35" t="s">
         <v>11</v>
       </c>
@@ -3987,10 +3987,10 @@
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="49">
-        <v>1</v>
-      </c>
-      <c r="D43" s="75"/>
+      <c r="C43" s="46">
+        <v>1</v>
+      </c>
+      <c r="D43" s="54"/>
       <c r="E43" s="25">
         <v>6</v>
       </c>
@@ -4002,10 +4002,10 @@
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="49">
+      <c r="C44" s="46">
         <v>2</v>
       </c>
-      <c r="D44" s="75"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="25">
         <v>5</v>
       </c>
@@ -4017,10 +4017,10 @@
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="49">
+      <c r="C45" s="46">
         <v>3</v>
       </c>
-      <c r="D45" s="75"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="25">
         <v>4</v>
       </c>
@@ -4032,10 +4032,10 @@
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="49">
+      <c r="C46" s="46">
         <v>4</v>
       </c>
-      <c r="D46" s="75"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="25">
         <v>3</v>
       </c>
@@ -4047,10 +4047,10 @@
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="49">
+      <c r="C47" s="46">
         <v>5</v>
       </c>
-      <c r="D47" s="75"/>
+      <c r="D47" s="54"/>
       <c r="E47" s="25">
         <v>2</v>
       </c>
@@ -4062,10 +4062,10 @@
       </c>
     </row>
     <row r="48" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="50">
+      <c r="C48" s="55">
         <v>6</v>
       </c>
-      <c r="D48" s="86"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="27">
         <v>1</v>
       </c>
@@ -4078,12 +4078,12 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="85"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -4115,13 +4115,63 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="O28:O30"/>
     <mergeCell ref="P28:P30"/>
     <mergeCell ref="D29:E29"/>
@@ -4138,63 +4188,13 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="H18:I25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4204,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:R109"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:P11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4242,25 +4242,25 @@
       <c r="R4" s="40"/>
     </row>
     <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="94"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="L5" s="79" t="s">
+      <c r="H5" s="92"/>
+      <c r="L5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="80"/>
+      <c r="M5" s="84"/>
       <c r="N5" s="37" t="s">
         <v>5</v>
       </c>
@@ -4274,217 +4274,217 @@
       <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="L6" s="59" t="s">
+      <c r="H6" s="92"/>
+      <c r="L6" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47" t="s">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="48"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="94" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="94"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="92"/>
+      <c r="L7" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="48"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="L8" s="59" t="s">
+      <c r="H8" s="92"/>
+      <c r="L8" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="M8" s="47"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="47" t="s">
+      <c r="O8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="70"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="75" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="54" t="s">
         <v>123</v>
       </c>
       <c r="H9" s="87"/>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="47"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="75" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="54" t="s">
         <v>124</v>
       </c>
       <c r="H10" s="87"/>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="75"/>
+      <c r="M10" s="54"/>
       <c r="N10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="75" t="s">
+      <c r="O10" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75" t="s">
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54" t="s">
         <v>33</v>
       </c>
       <c r="R10" s="87"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="59"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="54" t="s">
         <v>83</v>
       </c>
       <c r="H11" s="87"/>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="75"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="75" t="s">
+      <c r="O11" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
       <c r="R11" s="87"/>
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="86" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="82" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="88"/>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="M12" s="86"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="27"/>
-      <c r="O12" s="86" t="s">
+      <c r="O12" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86" t="s">
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82" t="s">
         <v>140</v>
       </c>
       <c r="R12" s="88"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="45"/>
-      <c r="L16" s="91" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="L16" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
     </row>
     <row r="17" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -4494,10 +4494,10 @@
       <c r="L17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="46" t="s">
+      <c r="M17" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="46"/>
+      <c r="N17" s="47"/>
       <c r="O17" t="s">
         <v>73</v>
       </c>
@@ -4506,10 +4506,10 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -4519,23 +4519,23 @@
       <c r="L18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="89" t="s">
+      <c r="N18" s="47"/>
+      <c r="O18" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="93" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -4543,17 +4543,17 @@
         <v>2</v>
       </c>
       <c r="L19" s="23"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="89"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="93"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -4563,21 +4563,21 @@
       <c r="L20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="46" t="s">
+      <c r="M20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="89" t="s">
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="93" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -4585,17 +4585,17 @@
         <v>4</v>
       </c>
       <c r="L21" s="23"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="89"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="93"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -4605,21 +4605,21 @@
       <c r="L22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="89" t="s">
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="93" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -4627,27 +4627,27 @@
         <v>6</v>
       </c>
       <c r="L23" s="23"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="89"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="93"/>
     </row>
     <row r="24" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="24"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="90"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="94"/>
     </row>
     <row r="27" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
@@ -4685,18 +4685,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="45"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="54"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
@@ -4705,10 +4705,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="46"/>
+      <c r="C38" s="47"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -4717,10 +4717,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="46"/>
+      <c r="C39" s="47"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -4729,10 +4729,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -4741,10 +4741,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="46"/>
+      <c r="C41" s="47"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -4753,10 +4753,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -4765,10 +4765,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -4778,11 +4778,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="45"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
@@ -4819,10 +4819,10 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="45"/>
+      <c r="C54" s="64"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
@@ -4882,10 +4882,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="45"/>
+      <c r="C65" s="64"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
@@ -4913,10 +4913,10 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="45"/>
+      <c r="C72" s="64"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
@@ -4976,10 +4976,10 @@
     </row>
     <row r="82" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="45"/>
+      <c r="C83" s="64"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
@@ -5007,18 +5007,18 @@
     </row>
     <row r="91" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="45"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="64"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="54"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="1" t="s">
         <v>80</v>
       </c>
@@ -5027,10 +5027,10 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="49" t="s">
+      <c r="B94" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="46"/>
+      <c r="C94" s="47"/>
       <c r="D94">
         <v>6</v>
       </c>
@@ -5039,10 +5039,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="46"/>
+      <c r="C95" s="47"/>
       <c r="D95">
         <v>5</v>
       </c>
@@ -5051,10 +5051,10 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="46"/>
+      <c r="C96" s="47"/>
       <c r="D96">
         <v>4</v>
       </c>
@@ -5063,10 +5063,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="46"/>
+      <c r="C97" s="47"/>
       <c r="D97">
         <v>3</v>
       </c>
@@ -5075,10 +5075,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="49" t="s">
+      <c r="B98" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="46"/>
+      <c r="C98" s="47"/>
       <c r="D98">
         <v>2</v>
       </c>
@@ -5087,10 +5087,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="51"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="4">
         <v>1</v>
       </c>
@@ -5100,10 +5100,10 @@
     </row>
     <row r="105" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="44" t="s">
+      <c r="B106" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C106" s="45"/>
+      <c r="C106" s="64"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
@@ -5131,6 +5131,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B9:C12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
@@ -5147,62 +5203,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="Q6:R9"/>
-    <mergeCell ref="M22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3924A142-9187-4154-B877-3654CD4B8FC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D592D062-3E1D-4B55-81CA-F9F8DBFE7BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="1200" windowWidth="21225" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Integer p1</t>
   </si>
   <si>
-    <t>SmartRules DoubleValue test4(Double param1)</t>
-  </si>
-  <si>
     <t>Test test4 test4Test</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>Integer $RuleId</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test4(Integer param1)</t>
   </si>
 </sst>
 </file>
@@ -772,10 +772,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,11 +811,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,90 +832,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,50 +905,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:P205"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1324,29 +1324,29 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>70</v>
+      <c r="C4" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>69</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1372,383 +1372,383 @@
         <v>4</v>
       </c>
       <c r="N5" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>65</v>
-      </c>
       <c r="P5" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="3:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="70" t="s">
+      <c r="O6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="48" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="70"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="M8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="52"/>
-      <c r="P8" s="70" t="s">
-        <v>66</v>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="70"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="70"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="52" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="70"/>
+      <c r="I11" s="48"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="70"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="61"/>
+        <v>131</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="52" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="70"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="70"/>
+        <v>93</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="52" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="70"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="70"/>
+        <v>93</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="48" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="76"/>
+      <c r="H18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="50"/>
+        <v>51</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="50"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="75"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="50"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="75"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="72"/>
       <c r="M24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="72"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -1781,135 +1781,135 @@
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="48" t="s">
+      <c r="E26" s="75"/>
+      <c r="F26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="M26" s="76" t="s">
+      <c r="G26" s="75"/>
+      <c r="H26" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="72"/>
+      <c r="M26" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" s="49" t="s">
-        <v>68</v>
+      <c r="O26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="61" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="50"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="72"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="61"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="50"/>
-      <c r="M28" s="76" t="s">
+      <c r="E28" s="75"/>
+      <c r="F28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="75"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="72"/>
+      <c r="M28" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="48" t="s">
+      <c r="N28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="48" t="s">
+      <c r="O28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="61" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="50"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="49"/>
+        <v>52</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="56" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="M30" s="76" t="s">
+      <c r="G30" s="78"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="56"/>
+      <c r="M30" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="P30" s="49"/>
+      <c r="P30" s="61"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="77"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="78"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="64"/>
     </row>
     <row r="34" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1917,17 +1917,17 @@
         <v>9</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="46">
-        <v>1</v>
-      </c>
-      <c r="D37" s="47"/>
+      <c r="C37" s="49">
+        <v>1</v>
+      </c>
+      <c r="D37" s="46"/>
       <c r="E37">
         <v>6</v>
       </c>
@@ -1937,134 +1937,134 @@
       <c r="M37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="O37" s="71"/>
+      <c r="O37" s="65"/>
       <c r="P37" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="46">
+      <c r="C38" s="49">
         <v>2</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="46"/>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="M38" s="66" t="s">
+      <c r="M38" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="71" t="s">
+      <c r="N38" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="P38" s="65" t="s">
+      <c r="O38" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="66" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="46">
+      <c r="C39" s="49">
         <v>3</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="46"/>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="M39" s="66"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="65"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="66"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C40" s="46">
+      <c r="C40" s="49">
         <v>4</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="46"/>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="M40" s="66" t="s">
+      <c r="M40" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="N40" s="71" t="s">
+      <c r="N40" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="O40" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="O40" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" s="65" t="s">
-        <v>64</v>
+      <c r="P40" s="66" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="46">
+      <c r="C41" s="49">
         <v>5</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="46"/>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
       </c>
-      <c r="M41" s="66"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="65"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="66"/>
     </row>
     <row r="42" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="55">
+      <c r="C42" s="50">
         <v>6</v>
       </c>
-      <c r="D42" s="56"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>6</v>
       </c>
-      <c r="M42" s="66" t="s">
+      <c r="M42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="71" t="s">
+      <c r="N42" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O42" s="71"/>
-      <c r="P42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="66"/>
     </row>
     <row r="43" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M43" s="72"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="74"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="68"/>
     </row>
     <row r="44" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2075,10 +2075,10 @@
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="46">
-        <v>1</v>
-      </c>
-      <c r="D47" s="47">
+      <c r="C47" s="49">
+        <v>1</v>
+      </c>
+      <c r="D47" s="46">
         <v>1</v>
       </c>
       <c r="E47">
@@ -2089,10 +2089,10 @@
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="46">
+      <c r="C48" s="49">
         <v>2</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="46">
         <v>2</v>
       </c>
       <c r="E48">
@@ -2103,10 +2103,10 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="46">
+      <c r="C49" s="49">
         <v>3</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="46">
         <v>3</v>
       </c>
       <c r="E49">
@@ -2117,10 +2117,10 @@
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="46">
+      <c r="C50" s="49">
         <v>4</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="46">
         <v>4</v>
       </c>
       <c r="E50">
@@ -2131,10 +2131,10 @@
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="46">
+      <c r="C51" s="49">
         <v>5</v>
       </c>
-      <c r="D51" s="47"/>
+      <c r="D51" s="46"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -2143,10 +2143,10 @@
       </c>
     </row>
     <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="55">
+      <c r="C52" s="50">
         <v>6</v>
       </c>
-      <c r="D52" s="56"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -2156,11 +2156,11 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="64"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="45"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -2197,11 +2197,11 @@
     </row>
     <row r="60" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="64"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="10" t="s">
@@ -2238,69 +2238,69 @@
     </row>
     <row r="67" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
+      <c r="C68" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
     </row>
     <row r="69" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="44" t="s">
+      <c r="C69" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="46">
-        <v>1</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
+      <c r="C70" s="49">
+        <v>1</v>
+      </c>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="46">
+      <c r="C71" s="49">
         <v>2</v>
       </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="46">
+      <c r="C72" s="49">
         <v>3</v>
       </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="55">
+      <c r="C73" s="50">
         <v>4</v>
       </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C77" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="64"/>
+      <c r="C77" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="45"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="10" t="s">
@@ -2328,38 +2328,38 @@
     </row>
     <row r="85" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="45"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C87" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="54"/>
+      <c r="E87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H87" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="64"/>
-    </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="45"/>
-      <c r="E87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C88" s="46">
-        <v>1</v>
-      </c>
-      <c r="D88" s="47"/>
+      <c r="C88" s="49">
+        <v>1</v>
+      </c>
+      <c r="D88" s="46"/>
       <c r="E88">
         <v>6</v>
       </c>
@@ -2374,10 +2374,10 @@
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C89" s="46">
+      <c r="C89" s="49">
         <v>2</v>
       </c>
-      <c r="D89" s="47"/>
+      <c r="D89" s="46"/>
       <c r="E89">
         <v>5</v>
       </c>
@@ -2392,10 +2392,10 @@
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C90" s="46">
+      <c r="C90" s="49">
         <v>3</v>
       </c>
-      <c r="D90" s="47"/>
+      <c r="D90" s="46"/>
       <c r="E90">
         <v>4</v>
       </c>
@@ -2410,10 +2410,10 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C91" s="46">
+      <c r="C91" s="49">
         <v>4</v>
       </c>
-      <c r="D91" s="47"/>
+      <c r="D91" s="46"/>
       <c r="E91">
         <v>3</v>
       </c>
@@ -2428,10 +2428,10 @@
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="46">
+      <c r="C92" s="49">
         <v>5</v>
       </c>
-      <c r="D92" s="47"/>
+      <c r="D92" s="46"/>
       <c r="E92">
         <v>2</v>
       </c>
@@ -2446,10 +2446,10 @@
       </c>
     </row>
     <row r="93" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="55">
+      <c r="C93" s="50">
         <v>6</v>
       </c>
-      <c r="D93" s="56"/>
+      <c r="D93" s="51"/>
       <c r="E93" s="4">
         <v>1</v>
       </c>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="97" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" s="64"/>
+      <c r="C98" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
@@ -2496,38 +2496,38 @@
     </row>
     <row r="105" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D106" s="63"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="63"/>
-      <c r="H106" s="64"/>
+      <c r="C106" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="45"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="54"/>
+      <c r="E107" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D107" s="45"/>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H107" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="46">
-        <v>1</v>
-      </c>
-      <c r="D108" s="47"/>
+      <c r="C108" s="49">
+        <v>1</v>
+      </c>
+      <c r="D108" s="46"/>
       <c r="E108">
         <v>6</v>
       </c>
@@ -2542,10 +2542,10 @@
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C109" s="46">
+      <c r="C109" s="49">
         <v>2</v>
       </c>
-      <c r="D109" s="47"/>
+      <c r="D109" s="46"/>
       <c r="E109">
         <v>5</v>
       </c>
@@ -2560,10 +2560,10 @@
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C110" s="46">
+      <c r="C110" s="49">
         <v>3</v>
       </c>
-      <c r="D110" s="47"/>
+      <c r="D110" s="46"/>
       <c r="E110">
         <v>4</v>
       </c>
@@ -2578,10 +2578,10 @@
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C111" s="46">
+      <c r="C111" s="49">
         <v>4</v>
       </c>
-      <c r="D111" s="47"/>
+      <c r="D111" s="46"/>
       <c r="E111">
         <v>3</v>
       </c>
@@ -2596,10 +2596,10 @@
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="46">
+      <c r="C112" s="49">
         <v>5</v>
       </c>
-      <c r="D112" s="47"/>
+      <c r="D112" s="46"/>
       <c r="E112">
         <v>2</v>
       </c>
@@ -2614,10 +2614,10 @@
       </c>
     </row>
     <row r="113" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="55">
+      <c r="C113" s="50">
         <v>6</v>
       </c>
-      <c r="D113" s="56"/>
+      <c r="D113" s="51"/>
       <c r="E113" s="4">
         <v>1</v>
       </c>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="117" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C118" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D118" s="64"/>
+      <c r="C118" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118" s="45"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
@@ -2664,38 +2664,38 @@
     </row>
     <row r="126" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D127" s="63"/>
-      <c r="E127" s="63"/>
-      <c r="F127" s="63"/>
-      <c r="G127" s="63"/>
-      <c r="H127" s="64"/>
+      <c r="C127" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="45"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C128" s="44" t="s">
+      <c r="C128" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="54"/>
+      <c r="E128" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D128" s="45"/>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H128" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C129" s="46">
-        <v>1</v>
-      </c>
-      <c r="D129" s="47"/>
+      <c r="C129" s="49">
+        <v>1</v>
+      </c>
+      <c r="D129" s="46"/>
       <c r="E129">
         <v>6</v>
       </c>
@@ -2710,10 +2710,10 @@
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C130" s="46">
+      <c r="C130" s="49">
         <v>2</v>
       </c>
-      <c r="D130" s="47"/>
+      <c r="D130" s="46"/>
       <c r="E130">
         <v>5</v>
       </c>
@@ -2728,10 +2728,10 @@
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C131" s="46">
+      <c r="C131" s="49">
         <v>3</v>
       </c>
-      <c r="D131" s="47"/>
+      <c r="D131" s="46"/>
       <c r="E131">
         <v>4</v>
       </c>
@@ -2746,10 +2746,10 @@
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C132" s="46">
+      <c r="C132" s="49">
         <v>4</v>
       </c>
-      <c r="D132" s="47"/>
+      <c r="D132" s="46"/>
       <c r="E132">
         <v>3</v>
       </c>
@@ -2764,10 +2764,10 @@
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C133" s="46">
+      <c r="C133" s="49">
         <v>5</v>
       </c>
-      <c r="D133" s="47"/>
+      <c r="D133" s="46"/>
       <c r="E133">
         <v>2</v>
       </c>
@@ -2782,10 +2782,10 @@
       </c>
     </row>
     <row r="134" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="55">
+      <c r="C134" s="50">
         <v>6</v>
       </c>
-      <c r="D134" s="56"/>
+      <c r="D134" s="51"/>
       <c r="E134" s="4">
         <v>1</v>
       </c>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="138" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C139" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D139" s="64"/>
+      <c r="C139" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" s="45"/>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C140" s="10" t="s">
@@ -2832,17 +2832,17 @@
     </row>
     <row r="146" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C147" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D147" s="42"/>
-      <c r="E147" s="43"/>
+      <c r="C147" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D147" s="44"/>
+      <c r="E147" s="42"/>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D148" s="45" t="s">
+      <c r="C148" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -2850,10 +2850,10 @@
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="46">
-        <v>1</v>
-      </c>
-      <c r="D149" s="47">
+      <c r="C149" s="49">
+        <v>1</v>
+      </c>
+      <c r="D149" s="46">
         <v>1</v>
       </c>
       <c r="E149" s="3">
@@ -2861,10 +2861,10 @@
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="46">
+      <c r="C150" s="49">
         <v>2</v>
       </c>
-      <c r="D150" s="47">
+      <c r="D150" s="46">
         <v>2</v>
       </c>
       <c r="E150" s="3">
@@ -2872,10 +2872,10 @@
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="46">
+      <c r="C151" s="49">
         <v>3</v>
       </c>
-      <c r="D151" s="47">
+      <c r="D151" s="46">
         <v>3</v>
       </c>
       <c r="E151" s="3">
@@ -2883,10 +2883,10 @@
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="46">
+      <c r="C152" s="49">
         <v>4</v>
       </c>
-      <c r="D152" s="47">
+      <c r="D152" s="46">
         <v>4</v>
       </c>
       <c r="E152" s="3">
@@ -2894,10 +2894,10 @@
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="46">
+      <c r="C153" s="49">
         <v>5</v>
       </c>
-      <c r="D153" s="47">
+      <c r="D153" s="46">
         <v>5</v>
       </c>
       <c r="E153" s="3">
@@ -2905,10 +2905,10 @@
       </c>
     </row>
     <row r="154" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="55">
+      <c r="C154" s="50">
         <v>6</v>
       </c>
-      <c r="D154" s="56">
+      <c r="D154" s="51">
         <v>6</v>
       </c>
       <c r="E154" s="5">
@@ -2917,18 +2917,18 @@
     </row>
     <row r="161" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D162" s="43"/>
-      <c r="E162" s="57"/>
+      <c r="C162" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D162" s="42"/>
+      <c r="E162" s="43"/>
     </row>
     <row r="163" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E163" s="29" t="s">
         <v>9</v>
@@ -3002,14 +3002,14 @@
     </row>
     <row r="173" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C174" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D174" s="64"/>
+      <c r="C174" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D174" s="45"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>18</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C176" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>19</v>
@@ -3033,14 +3033,14 @@
     </row>
     <row r="181" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C182" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D182" s="64"/>
+      <c r="C182" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D182" s="45"/>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>18</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C184" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>19</v>
@@ -3064,18 +3064,18 @@
     </row>
     <row r="189" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C190" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D190" s="43"/>
-      <c r="E190" s="57"/>
+      <c r="C190" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190" s="42"/>
+      <c r="E190" s="43"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D191" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="D191" s="28" t="s">
-        <v>94</v>
       </c>
       <c r="E191" s="29" t="s">
         <v>9</v>
@@ -3149,14 +3149,14 @@
     </row>
     <row r="201" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C202" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D202" s="64"/>
+      <c r="C202" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D202" s="45"/>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>18</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C204" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>19</v>
@@ -3180,6 +3180,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="H26:I29"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C190:E190"/>
     <mergeCell ref="C202:D202"/>
     <mergeCell ref="D15:E15"/>
@@ -3204,125 +3323,6 @@
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="H26:I29"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I25"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C89:D89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3348,29 +3348,29 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>99</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -3396,383 +3396,383 @@
         <v>4</v>
       </c>
       <c r="N5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="P5" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="70" t="s">
+      <c r="O6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="48" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="70"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="M8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="52"/>
-      <c r="P8" s="70" t="s">
-        <v>66</v>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="70"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="70"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="52" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="70"/>
+      <c r="I11" s="48"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="70"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="61"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="52" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="70"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="70"/>
+        <v>93</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="52" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="70"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="70"/>
+        <v>93</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="48" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="76"/>
+      <c r="H18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="50"/>
+        <v>51</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="50"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="75"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="50"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="75"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="72"/>
       <c r="M24" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="72"/>
       <c r="M25" s="18" t="s">
         <v>7</v>
       </c>
@@ -3805,192 +3805,192 @@
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="48" t="s">
+      <c r="E26" s="75"/>
+      <c r="F26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="M26" s="76" t="s">
+      <c r="G26" s="75"/>
+      <c r="H26" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="72"/>
+      <c r="M26" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" s="49" t="s">
-        <v>68</v>
+      <c r="O26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="61" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="50"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="72"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="61"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="50"/>
-      <c r="M28" s="76" t="s">
+      <c r="E28" s="75"/>
+      <c r="F28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="75"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="72"/>
+      <c r="M28" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="48" t="s">
+      <c r="N28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="48" t="s">
+      <c r="O28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="70" t="s">
+      <c r="P28" s="48" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="50"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="70"/>
+        <v>52</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="48"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="54" t="s">
+      <c r="G30" s="75"/>
+      <c r="H30" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="70"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="70"/>
+      <c r="I30" s="48"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="48"/>
     </row>
     <row r="31" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="56" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
-      <c r="M31" s="76" t="s">
+      <c r="G31" s="78"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="56"/>
+      <c r="M31" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="P31" s="49"/>
+      <c r="P31" s="61"/>
     </row>
     <row r="32" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="77"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="78"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
     </row>
     <row r="38" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M39" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="N39" s="85"/>
+      <c r="M39" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="81"/>
     </row>
     <row r="40" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="M41" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N40" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="M41" s="11" t="s">
+      <c r="N41" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="N41" s="26" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="84"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="35" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="46">
-        <v>1</v>
-      </c>
-      <c r="D43" s="54"/>
+      <c r="C43" s="49">
+        <v>1</v>
+      </c>
+      <c r="D43" s="75"/>
       <c r="E43" s="25">
         <v>6</v>
       </c>
@@ -3998,14 +3998,14 @@
         <v>777</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="46">
+      <c r="C44" s="49">
         <v>2</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="25">
         <v>5</v>
       </c>
@@ -4017,10 +4017,10 @@
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="46">
+      <c r="C45" s="49">
         <v>3</v>
       </c>
-      <c r="D45" s="54"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="25">
         <v>4</v>
       </c>
@@ -4032,10 +4032,10 @@
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="46">
+      <c r="C46" s="49">
         <v>4</v>
       </c>
-      <c r="D46" s="54"/>
+      <c r="D46" s="75"/>
       <c r="E46" s="25">
         <v>3</v>
       </c>
@@ -4047,10 +4047,10 @@
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="46">
+      <c r="C47" s="49">
         <v>5</v>
       </c>
-      <c r="D47" s="54"/>
+      <c r="D47" s="75"/>
       <c r="E47" s="25">
         <v>2</v>
       </c>
@@ -4062,10 +4062,10 @@
       </c>
     </row>
     <row r="48" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="55">
+      <c r="C48" s="50">
         <v>6</v>
       </c>
-      <c r="D48" s="82"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="27">
         <v>1</v>
       </c>
@@ -4078,12 +4078,12 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="81"/>
+      <c r="C55" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="85"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
@@ -4093,7 +4093,7 @@
         <v>16</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F56" s="30" t="s">
         <v>18</v>
@@ -4107,7 +4107,7 @@
         <v>17</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>19</v>
@@ -4115,63 +4115,13 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="H18:I25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="O28:O30"/>
     <mergeCell ref="P28:P30"/>
     <mergeCell ref="D29:E29"/>
@@ -4188,13 +4138,63 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G29"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="N28:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4204,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -4232,7 +4232,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="12"/>
       <c r="L4" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
@@ -4242,25 +4242,25 @@
       <c r="R4" s="40"/>
     </row>
     <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="91"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="94"/>
       <c r="F5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="92"/>
-      <c r="L5" s="83" t="s">
+      <c r="G5" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="L5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="84"/>
+      <c r="M5" s="80"/>
       <c r="N5" s="37" t="s">
         <v>5</v>
       </c>
@@ -4274,217 +4274,217 @@
       <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="92"/>
-      <c r="L6" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="52"/>
+      <c r="G6" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="95"/>
+      <c r="L6" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="47"/>
       <c r="N6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52" t="s">
+      <c r="O6" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="70"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="91"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="94"/>
       <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="L7" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="L7" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="70"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="92"/>
-      <c r="L8" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="M8" s="52"/>
+      <c r="H8" s="95"/>
+      <c r="L8" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="47"/>
       <c r="N8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="70"/>
+      <c r="O8" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="54"/>
+      <c r="B9" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="75"/>
       <c r="F9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="54" t="s">
-        <v>123</v>
+      <c r="G9" s="75" t="s">
+        <v>122</v>
       </c>
       <c r="H9" s="87"/>
-      <c r="L9" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="52"/>
+      <c r="L9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="47"/>
       <c r="N9" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="70"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="76"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="54"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="75"/>
       <c r="F10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>124</v>
+      <c r="G10" s="75" t="s">
+        <v>123</v>
       </c>
       <c r="H10" s="87"/>
-      <c r="L10" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="54"/>
+      <c r="L10" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="75"/>
       <c r="N10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54" t="s">
+      <c r="O10" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75" t="s">
         <v>33</v>
       </c>
       <c r="R10" s="87"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="76"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="54" t="s">
         <v>83</v>
       </c>
+      <c r="G11" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="H11" s="87"/>
-      <c r="L11" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11" s="54"/>
+      <c r="L11" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="75"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
+      <c r="O11" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
       <c r="R11" s="87"/>
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="77"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="82" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="82"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="82" t="s">
-        <v>125</v>
+      <c r="G12" s="86" t="s">
+        <v>124</v>
       </c>
       <c r="H12" s="88"/>
-      <c r="L12" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="82"/>
+      <c r="L12" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="86"/>
       <c r="N12" s="27"/>
-      <c r="O12" s="82" t="s">
+      <c r="O12" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86" t="s">
         <v>139</v>
-      </c>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82" t="s">
-        <v>140</v>
       </c>
       <c r="R12" s="88"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
-      <c r="L16" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="45"/>
+      <c r="L16" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
     </row>
     <row r="17" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -4494,22 +4494,22 @@
       <c r="L17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="46"/>
+      <c r="O17" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="47"/>
-      <c r="O17" t="s">
+      <c r="Q17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="46"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -4519,23 +4519,23 @@
       <c r="L18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="93" t="s">
+      <c r="N18" s="46"/>
+      <c r="O18" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="89" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="46"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -4543,17 +4543,17 @@
         <v>2</v>
       </c>
       <c r="L19" s="23"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="93"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="46"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -4563,21 +4563,21 @@
       <c r="L20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="93" t="s">
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="89" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -4585,17 +4585,17 @@
         <v>4</v>
       </c>
       <c r="L21" s="23"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="93"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="46"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -4605,21 +4605,21 @@
       <c r="L22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="93" t="s">
-        <v>78</v>
+      <c r="M22" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="89" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -4627,27 +4627,27 @@
         <v>6</v>
       </c>
       <c r="L23" s="23"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="93"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="89"/>
     </row>
     <row r="24" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="24"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="94"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="90"/>
     </row>
     <row r="27" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
+      <c r="B28" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
@@ -4685,18 +4685,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
+      <c r="B36" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="45"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="45"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
@@ -4705,10 +4705,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="47"/>
+      <c r="C38" s="46"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -4717,10 +4717,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="47"/>
+      <c r="C39" s="46"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -4729,10 +4729,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="47"/>
+      <c r="C40" s="46"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -4741,10 +4741,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="47"/>
+      <c r="C41" s="46"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -4753,10 +4753,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="46"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -4765,10 +4765,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -4778,11 +4778,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
+      <c r="B47" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
@@ -4819,17 +4819,17 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="64"/>
+      <c r="B54" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="45"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -4882,10 +4882,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="64"/>
+      <c r="B65" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="45"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
@@ -4913,17 +4913,17 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="64"/>
+      <c r="B72" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="45"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
@@ -4976,10 +4976,10 @@
     </row>
     <row r="82" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="64"/>
+      <c r="B83" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="45"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
@@ -5002,35 +5002,35 @@
         <v>2</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="64"/>
+      <c r="B92" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="45"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="45"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="47"/>
+      <c r="C94" s="46"/>
       <c r="D94">
         <v>6</v>
       </c>
@@ -5039,10 +5039,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="47"/>
+      <c r="C95" s="46"/>
       <c r="D95">
         <v>5</v>
       </c>
@@ -5051,10 +5051,10 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="47"/>
+      <c r="C96" s="46"/>
       <c r="D96">
         <v>4</v>
       </c>
@@ -5063,10 +5063,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="47"/>
+      <c r="C97" s="46"/>
       <c r="D97">
         <v>3</v>
       </c>
@@ -5075,10 +5075,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="47"/>
+      <c r="C98" s="46"/>
       <c r="D98">
         <v>2</v>
       </c>
@@ -5087,10 +5087,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="56"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="4">
         <v>1</v>
       </c>
@@ -5100,14 +5100,14 @@
     </row>
     <row r="105" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="64"/>
+      <c r="B106" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" s="45"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>18</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>19</v>
@@ -5131,62 +5131,6 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="Q6:R9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B9:C12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
@@ -5203,6 +5147,62 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="M22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
